--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -14659,19 +14659,19 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B548" t="s">
         <v>8</v>
       </c>
       <c r="C548" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4157514904</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -14685,19 +14685,19 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B549" t="s">
         <v>9</v>
       </c>
       <c r="C549" t="n">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D549" t="n">
-        <v>1.8787260747</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E549" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14711,19 +14711,19 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B550" t="s">
         <v>10</v>
       </c>
       <c r="C550" t="n">
-        <v>1244</v>
+        <v>1293</v>
       </c>
       <c r="D550" t="n">
-        <v>4.8791967367</v>
+        <v>4.921589525</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
@@ -14737,51 +14737,51 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B551" t="s">
         <v>11</v>
       </c>
       <c r="C551" t="n">
-        <v>4718</v>
+        <v>4901</v>
       </c>
       <c r="D551" t="n">
-        <v>18.504863508</v>
+        <v>18.654841657</v>
       </c>
       <c r="E551" t="n">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F551" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G551" t="n">
-        <v>0.6954102921</v>
+        <v>0.5494505495</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B552" t="s">
         <v>12</v>
       </c>
       <c r="C552" t="n">
-        <v>4717</v>
+        <v>4867</v>
       </c>
       <c r="D552" t="n">
-        <v>18.500941324</v>
+        <v>18.525426309</v>
       </c>
       <c r="E552" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F552" t="n">
         <v>12</v>
       </c>
       <c r="G552" t="n">
-        <v>1.668984701</v>
+        <v>1.6483516484</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14789,51 +14789,51 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B553" t="s">
         <v>13</v>
       </c>
       <c r="C553" t="n">
-        <v>4538</v>
+        <v>4684</v>
       </c>
       <c r="D553" t="n">
-        <v>17.798870411</v>
+        <v>17.828867235</v>
       </c>
       <c r="E553" t="n">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="F553" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G553" t="n">
-        <v>3.6161335188</v>
+        <v>3.8461538462</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B554" t="s">
         <v>14</v>
       </c>
       <c r="C554" t="n">
-        <v>4251</v>
+        <v>4353</v>
       </c>
       <c r="D554" t="n">
-        <v>16.67320364</v>
+        <v>16.568970767</v>
       </c>
       <c r="E554" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F554" t="n">
         <v>77</v>
       </c>
       <c r="G554" t="n">
-        <v>10.709318498</v>
+        <v>10.576923077</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14841,77 +14841,77 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B555" t="s">
         <v>15</v>
       </c>
       <c r="C555" t="n">
-        <v>1688</v>
+        <v>1735</v>
       </c>
       <c r="D555" t="n">
-        <v>6.6206463759</v>
+        <v>6.6039890378</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F555" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G555" t="n">
-        <v>9.8748261474</v>
+        <v>10.164835165</v>
       </c>
       <c r="H555" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B556" t="s">
         <v>16</v>
       </c>
       <c r="C556" t="n">
-        <v>1225</v>
+        <v>1266</v>
       </c>
       <c r="D556" t="n">
-        <v>4.8046752432</v>
+        <v>4.818818514</v>
       </c>
       <c r="E556" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F556" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G556" t="n">
-        <v>11.40472879</v>
+        <v>11.538461538</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B557" t="s">
         <v>17</v>
       </c>
       <c r="C557" t="n">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="D557" t="n">
-        <v>3.1181361782</v>
+        <v>3.0717113276</v>
       </c>
       <c r="E557" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F557" t="n">
         <v>79</v>
       </c>
       <c r="G557" t="n">
-        <v>10.987482615</v>
+        <v>10.851648352</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14919,59 +14919,59 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B558" t="s">
         <v>18</v>
       </c>
       <c r="C558" t="n">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="D558" t="n">
-        <v>2.3572325071</v>
+        <v>2.3408952497</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F558" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G558" t="n">
-        <v>11.543810848</v>
+        <v>11.675824176</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B559" t="s">
         <v>19</v>
       </c>
       <c r="C559" t="n">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D559" t="n">
-        <v>4.3771572011</v>
+        <v>4.2859317905</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F559" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G559" t="n">
-        <v>39.49930459</v>
+        <v>39.148351648</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B560" t="s">
         <v>20</v>
@@ -14980,7 +14980,7 @@
         <v>18</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0705993097</v>
+        <v>0.0685140073</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
@@ -18313,77 +18313,77 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>12249</v>
+        <v>12560</v>
       </c>
       <c r="D128" t="n">
-        <v>48.042830248</v>
+        <v>47.807551766</v>
       </c>
       <c r="E128" t="n">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="F128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G128" t="n">
-        <v>41.585535466</v>
+        <v>41.208791209</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" t="n">
-        <v>12955</v>
+        <v>13369</v>
       </c>
       <c r="D129" t="n">
-        <v>50.811892062</v>
+        <v>50.886875761</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="F129" t="n">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G129" t="n">
-        <v>58.275382476</v>
+        <v>58.653846154</v>
       </c>
       <c r="H129" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="D130" t="n">
-        <v>1.1452776906</v>
+        <v>1.3055724726</v>
       </c>
       <c r="E130" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1390820584</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H130" t="n">
         <v>-2</v>
@@ -24827,25 +24827,25 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
       </c>
       <c r="C248" t="n">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="D248" t="n">
-        <v>2.5180420458</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F248" t="n">
         <v>14</v>
       </c>
       <c r="G248" t="n">
-        <v>1.9471488178</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -24853,77 +24853,77 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
       </c>
       <c r="C249" t="n">
-        <v>2916</v>
+        <v>2989</v>
       </c>
       <c r="D249" t="n">
-        <v>11.437088171</v>
+        <v>11.377131547</v>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F249" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G249" t="n">
-        <v>12.795549374</v>
+        <v>12.912087912</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="n">
-        <v>10134</v>
+        <v>10534</v>
       </c>
       <c r="D250" t="n">
-        <v>39.747411359</v>
+        <v>40.09591961</v>
       </c>
       <c r="E250" t="n">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="F250" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G250" t="n">
-        <v>29.207232267</v>
+        <v>28.983516484</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B251" t="s">
         <v>26</v>
       </c>
       <c r="C251" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D251" t="n">
-        <v>0.521650455</v>
+        <v>0.5138550548</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1390820584</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -24931,54 +24931,54 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
       </c>
       <c r="C252" t="n">
-        <v>5325</v>
+        <v>5441</v>
       </c>
       <c r="D252" t="n">
-        <v>20.885629118</v>
+        <v>20.710261876</v>
       </c>
       <c r="E252" t="n">
-        <v>-2</v>
+        <v>114</v>
       </c>
       <c r="F252" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G252" t="n">
-        <v>12.795549374</v>
+        <v>12.774725275</v>
       </c>
       <c r="H252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>6346</v>
+        <v>6522</v>
       </c>
       <c r="D253" t="n">
-        <v>24.890178852</v>
+        <v>24.824908648</v>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="F253" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G253" t="n">
-        <v>43.115438108</v>
+        <v>43.269230769</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -14688,16 +14688,16 @@
         <v>44027</v>
       </c>
       <c r="B549" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C549" t="n">
-        <v>496</v>
+        <v>111</v>
       </c>
       <c r="D549" t="n">
-        <v>1.8879415347</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E549" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14714,16 +14714,16 @@
         <v>44027</v>
       </c>
       <c r="B550" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C550" t="n">
-        <v>1293</v>
+        <v>111</v>
       </c>
       <c r="D550" t="n">
-        <v>4.921589525</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E550" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
@@ -14740,25 +14740,25 @@
         <v>44027</v>
       </c>
       <c r="B551" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C551" t="n">
-        <v>4901</v>
+        <v>111</v>
       </c>
       <c r="D551" t="n">
-        <v>18.654841657</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E551" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -14766,22 +14766,22 @@
         <v>44027</v>
       </c>
       <c r="B552" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C552" t="n">
-        <v>4867</v>
+        <v>496</v>
       </c>
       <c r="D552" t="n">
-        <v>18.525426309</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E552" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>1.6483516484</v>
+        <v>0</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14792,25 +14792,25 @@
         <v>44027</v>
       </c>
       <c r="B553" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C553" t="n">
-        <v>4684</v>
+        <v>496</v>
       </c>
       <c r="D553" t="n">
-        <v>17.828867235</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E553" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>3.8461538462</v>
+        <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -14818,22 +14818,22 @@
         <v>44027</v>
       </c>
       <c r="B554" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C554" t="n">
-        <v>4353</v>
+        <v>496</v>
       </c>
       <c r="D554" t="n">
-        <v>16.568970767</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E554" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F554" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14844,25 +14844,25 @@
         <v>44027</v>
       </c>
       <c r="B555" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>1735</v>
+        <v>496</v>
       </c>
       <c r="D555" t="n">
-        <v>6.6039890378</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E555" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F555" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>10.164835165</v>
+        <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -14870,25 +14870,25 @@
         <v>44027</v>
       </c>
       <c r="B556" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C556" t="n">
-        <v>1266</v>
+        <v>1293</v>
       </c>
       <c r="D556" t="n">
-        <v>4.818818514</v>
+        <v>4.921589525</v>
       </c>
       <c r="E556" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G556" t="n">
-        <v>11.538461538</v>
+        <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -14896,22 +14896,22 @@
         <v>44027</v>
       </c>
       <c r="B557" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C557" t="n">
-        <v>807</v>
+        <v>1293</v>
       </c>
       <c r="D557" t="n">
-        <v>3.0717113276</v>
+        <v>4.921589525</v>
       </c>
       <c r="E557" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>10.851648352</v>
+        <v>0</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14922,25 +14922,25 @@
         <v>44027</v>
       </c>
       <c r="B558" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C558" t="n">
-        <v>615</v>
+        <v>1293</v>
       </c>
       <c r="D558" t="n">
-        <v>2.3408952497</v>
+        <v>4.921589525</v>
       </c>
       <c r="E558" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F558" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>11.675824176</v>
+        <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -14948,25 +14948,25 @@
         <v>44027</v>
       </c>
       <c r="B559" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C559" t="n">
-        <v>1126</v>
+        <v>1293</v>
       </c>
       <c r="D559" t="n">
-        <v>4.2859317905</v>
+        <v>4.921589525</v>
       </c>
       <c r="E559" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F559" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="G559" t="n">
-        <v>39.148351648</v>
+        <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -14974,24 +14974,1038 @@
         <v>44027</v>
       </c>
       <c r="B560" t="s">
+        <v>11</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D560" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>4</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D561" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>4</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H561" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B562" t="s">
+        <v>11</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D562" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E562" t="n">
+        <v>191</v>
+      </c>
+      <c r="F562" t="n">
+        <v>4</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B563" t="s">
+        <v>11</v>
+      </c>
+      <c r="C563" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D563" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E563" t="n">
+        <v>191</v>
+      </c>
+      <c r="F563" t="n">
+        <v>4</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H563" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B564" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D564" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E564" t="n">
+        <v>160</v>
+      </c>
+      <c r="F564" t="n">
+        <v>12</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B565" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D565" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E565" t="n">
+        <v>160</v>
+      </c>
+      <c r="F565" t="n">
+        <v>12</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B566" t="s">
+        <v>12</v>
+      </c>
+      <c r="C566" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D566" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>12</v>
+      </c>
+      <c r="G566" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B567" t="s">
+        <v>12</v>
+      </c>
+      <c r="C567" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D567" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>12</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B568" t="s">
+        <v>13</v>
+      </c>
+      <c r="C568" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D568" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>28</v>
+      </c>
+      <c r="G568" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B569" t="s">
+        <v>13</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D569" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>28</v>
+      </c>
+      <c r="G569" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B570" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D570" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E570" t="n">
+        <v>152</v>
+      </c>
+      <c r="F570" t="n">
+        <v>28</v>
+      </c>
+      <c r="G570" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B571" t="s">
+        <v>13</v>
+      </c>
+      <c r="C571" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D571" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E571" t="n">
+        <v>152</v>
+      </c>
+      <c r="F571" t="n">
+        <v>28</v>
+      </c>
+      <c r="G571" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B572" t="s">
+        <v>14</v>
+      </c>
+      <c r="C572" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D572" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>77</v>
+      </c>
+      <c r="G572" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B573" t="s">
+        <v>14</v>
+      </c>
+      <c r="C573" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D573" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>77</v>
+      </c>
+      <c r="G573" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B574" t="s">
+        <v>14</v>
+      </c>
+      <c r="C574" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D574" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E574" t="n">
+        <v>109</v>
+      </c>
+      <c r="F574" t="n">
+        <v>77</v>
+      </c>
+      <c r="G574" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B575" t="s">
+        <v>14</v>
+      </c>
+      <c r="C575" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D575" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E575" t="n">
+        <v>109</v>
+      </c>
+      <c r="F575" t="n">
+        <v>77</v>
+      </c>
+      <c r="G575" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B576" t="s">
+        <v>15</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D576" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>74</v>
+      </c>
+      <c r="G576" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B577" t="s">
+        <v>15</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D577" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>74</v>
+      </c>
+      <c r="G577" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B578" t="s">
+        <v>15</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D578" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E578" t="n">
+        <v>47</v>
+      </c>
+      <c r="F578" t="n">
+        <v>74</v>
+      </c>
+      <c r="G578" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B579" t="s">
+        <v>15</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D579" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E579" t="n">
+        <v>47</v>
+      </c>
+      <c r="F579" t="n">
+        <v>74</v>
+      </c>
+      <c r="G579" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B580" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D580" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E580" t="n">
+        <v>40</v>
+      </c>
+      <c r="F580" t="n">
+        <v>84</v>
+      </c>
+      <c r="G580" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B581" t="s">
+        <v>16</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D581" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E581" t="n">
+        <v>40</v>
+      </c>
+      <c r="F581" t="n">
+        <v>84</v>
+      </c>
+      <c r="G581" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B582" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D582" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+      <c r="F582" t="n">
+        <v>84</v>
+      </c>
+      <c r="G582" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B583" t="s">
+        <v>16</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D583" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+      <c r="F583" t="n">
+        <v>84</v>
+      </c>
+      <c r="G583" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B584" t="s">
+        <v>17</v>
+      </c>
+      <c r="C584" t="n">
+        <v>807</v>
+      </c>
+      <c r="D584" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="n">
+        <v>79</v>
+      </c>
+      <c r="G584" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B585" t="s">
+        <v>17</v>
+      </c>
+      <c r="C585" t="n">
+        <v>807</v>
+      </c>
+      <c r="D585" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="n">
+        <v>79</v>
+      </c>
+      <c r="G585" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B586" t="s">
+        <v>17</v>
+      </c>
+      <c r="C586" t="n">
+        <v>807</v>
+      </c>
+      <c r="D586" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E586" t="n">
+        <v>11</v>
+      </c>
+      <c r="F586" t="n">
+        <v>79</v>
+      </c>
+      <c r="G586" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B587" t="s">
+        <v>17</v>
+      </c>
+      <c r="C587" t="n">
+        <v>807</v>
+      </c>
+      <c r="D587" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E587" t="n">
+        <v>11</v>
+      </c>
+      <c r="F587" t="n">
+        <v>79</v>
+      </c>
+      <c r="G587" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B588" t="s">
+        <v>18</v>
+      </c>
+      <c r="C588" t="n">
+        <v>615</v>
+      </c>
+      <c r="D588" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F588" t="n">
+        <v>85</v>
+      </c>
+      <c r="G588" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B589" t="s">
+        <v>18</v>
+      </c>
+      <c r="C589" t="n">
+        <v>615</v>
+      </c>
+      <c r="D589" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="n">
+        <v>85</v>
+      </c>
+      <c r="G589" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B590" t="s">
+        <v>18</v>
+      </c>
+      <c r="C590" t="n">
+        <v>615</v>
+      </c>
+      <c r="D590" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E590" t="n">
+        <v>14</v>
+      </c>
+      <c r="F590" t="n">
+        <v>85</v>
+      </c>
+      <c r="G590" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B591" t="s">
+        <v>18</v>
+      </c>
+      <c r="C591" t="n">
+        <v>615</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E591" t="n">
+        <v>14</v>
+      </c>
+      <c r="F591" t="n">
+        <v>85</v>
+      </c>
+      <c r="G591" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B592" t="s">
+        <v>19</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D592" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
+        <v>285</v>
+      </c>
+      <c r="G592" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B593" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D593" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
+        <v>285</v>
+      </c>
+      <c r="G593" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B594" t="s">
+        <v>19</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E594" t="n">
+        <v>10</v>
+      </c>
+      <c r="F594" t="n">
+        <v>285</v>
+      </c>
+      <c r="G594" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B595" t="s">
+        <v>19</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D595" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E595" t="n">
+        <v>10</v>
+      </c>
+      <c r="F595" t="n">
+        <v>285</v>
+      </c>
+      <c r="G595" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B596" t="s">
         <v>20</v>
       </c>
-      <c r="C560" t="n">
+      <c r="C596" t="n">
         <v>18</v>
       </c>
-      <c r="D560" t="n">
+      <c r="D596" t="n">
         <v>0.0685140073</v>
       </c>
-      <c r="E560" t="n">
-        <v>0</v>
-      </c>
-      <c r="F560" t="n">
-        <v>0</v>
-      </c>
-      <c r="G560" t="n">
-        <v>0</v>
-      </c>
-      <c r="H560" t="n">
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B597" t="s">
+        <v>20</v>
+      </c>
+      <c r="C597" t="n">
+        <v>18</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B598" t="s">
+        <v>20</v>
+      </c>
+      <c r="C598" t="n">
+        <v>18</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B599" t="s">
+        <v>20</v>
+      </c>
+      <c r="C599" t="n">
+        <v>18</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18342,25 +19356,25 @@
         <v>44027</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" t="n">
-        <v>13369</v>
+        <v>12560</v>
       </c>
       <c r="D129" t="n">
-        <v>50.886875761</v>
+        <v>47.807551766</v>
       </c>
       <c r="E129" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="F129" t="n">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="G129" t="n">
-        <v>58.653846154</v>
+        <v>41.208791209</v>
       </c>
       <c r="H129" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -18368,25 +19382,259 @@
         <v>44027</v>
       </c>
       <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D130" t="n">
+        <v>47.807551766</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>300</v>
+      </c>
+      <c r="G130" t="n">
+        <v>41.208791209</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D131" t="n">
+        <v>47.807551766</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>300</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41.208791209</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D132" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E132" t="n">
+        <v>424</v>
+      </c>
+      <c r="F132" t="n">
+        <v>427</v>
+      </c>
+      <c r="G132" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D133" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E133" t="n">
+        <v>424</v>
+      </c>
+      <c r="F133" t="n">
+        <v>427</v>
+      </c>
+      <c r="G133" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D134" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>427</v>
+      </c>
+      <c r="G134" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D135" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>427</v>
+      </c>
+      <c r="G135" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B136" t="s">
         <v>20</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C136" t="n">
         <v>343</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D136" t="n">
         <v>1.3055724726</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E136" t="n">
         <v>50</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F136" t="n">
         <v>1</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G136" t="n">
         <v>0.1373626374</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H136" t="n">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="n">
+        <v>343</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E137" t="n">
+        <v>50</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="n">
+        <v>343</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="n">
+        <v>343</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24856,25 +26104,25 @@
         <v>44027</v>
       </c>
       <c r="B249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C249" t="n">
-        <v>2989</v>
+        <v>651</v>
       </c>
       <c r="D249" t="n">
-        <v>11.377131547</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E249" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F249" t="n">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G249" t="n">
-        <v>12.912087912</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -24882,25 +26130,25 @@
         <v>44027</v>
       </c>
       <c r="B250" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C250" t="n">
-        <v>10534</v>
+        <v>651</v>
       </c>
       <c r="D250" t="n">
-        <v>40.09591961</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E250" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="G250" t="n">
-        <v>28.983516484</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -24908,22 +26156,22 @@
         <v>44027</v>
       </c>
       <c r="B251" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C251" t="n">
-        <v>135</v>
+        <v>651</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5138550548</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1373626374</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -24934,25 +26182,25 @@
         <v>44027</v>
       </c>
       <c r="B252" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C252" t="n">
-        <v>5441</v>
+        <v>2989</v>
       </c>
       <c r="D252" t="n">
-        <v>20.710261876</v>
+        <v>11.377131547</v>
       </c>
       <c r="E252" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F252" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G252" t="n">
-        <v>12.774725275</v>
+        <v>12.912087912</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -24960,25 +26208,493 @@
         <v>44027</v>
       </c>
       <c r="B253" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D253" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E253" t="n">
+        <v>74</v>
+      </c>
+      <c r="F253" t="n">
+        <v>94</v>
+      </c>
+      <c r="G253" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D254" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>94</v>
+      </c>
+      <c r="G254" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D255" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>94</v>
+      </c>
+      <c r="G255" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D256" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>211</v>
+      </c>
+      <c r="G256" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D257" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>211</v>
+      </c>
+      <c r="G257" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D258" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E258" t="n">
+        <v>424</v>
+      </c>
+      <c r="F258" t="n">
+        <v>211</v>
+      </c>
+      <c r="G258" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D259" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E259" t="n">
+        <v>424</v>
+      </c>
+      <c r="F259" t="n">
+        <v>211</v>
+      </c>
+      <c r="G259" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" t="n">
+        <v>135</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" t="n">
+        <v>135</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B262" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" t="n">
+        <v>135</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263" t="n">
+        <v>135</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B264" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D264" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E264" t="n">
+        <v>114</v>
+      </c>
+      <c r="F264" t="n">
+        <v>93</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D265" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E265" t="n">
+        <v>114</v>
+      </c>
+      <c r="F265" t="n">
+        <v>93</v>
+      </c>
+      <c r="G265" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D266" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>93</v>
+      </c>
+      <c r="G266" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B267" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D267" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>93</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B268" t="s">
         <v>27</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C268" t="n">
         <v>6522</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D268" t="n">
         <v>24.824908648</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E268" t="n">
         <v>183</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F268" t="n">
         <v>315</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G268" t="n">
         <v>43.269230769</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H268" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D269" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E269" t="n">
+        <v>183</v>
+      </c>
+      <c r="F269" t="n">
+        <v>315</v>
+      </c>
+      <c r="G269" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D270" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>315</v>
+      </c>
+      <c r="G270" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>315</v>
+      </c>
+      <c r="G271" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -14659,19 +14659,19 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B548" t="s">
         <v>8</v>
       </c>
       <c r="C548" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4225030451</v>
+        <v>0.4157514904</v>
       </c>
       <c r="E548" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -14685,19 +14685,19 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B549" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C549" t="n">
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4225030451</v>
+        <v>1.8787260747</v>
       </c>
       <c r="E549" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14711,16 +14711,16 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B550" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C550" t="n">
-        <v>111</v>
+        <v>1244</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4225030451</v>
+        <v>4.8791967367</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -14737,25 +14737,25 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B551" t="s">
+        <v>11</v>
+      </c>
+      <c r="C551" t="n">
+        <v>4718</v>
+      </c>
+      <c r="D551" t="n">
+        <v>18.504863508</v>
+      </c>
+      <c r="E551" t="n">
         <v>8</v>
       </c>
-      <c r="C551" t="n">
-        <v>111</v>
-      </c>
-      <c r="D551" t="n">
-        <v>0.4225030451</v>
-      </c>
-      <c r="E551" t="n">
-        <v>0</v>
-      </c>
       <c r="F551" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>0.6954102921</v>
       </c>
       <c r="H551" t="n">
         <v>0</v>
@@ -14763,25 +14763,25 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C552" t="n">
-        <v>496</v>
+        <v>4717</v>
       </c>
       <c r="D552" t="n">
-        <v>1.8879415347</v>
+        <v>18.500941324</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F552" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>1.668984701</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14789,25 +14789,25 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C553" t="n">
-        <v>496</v>
+        <v>4538</v>
       </c>
       <c r="D553" t="n">
-        <v>1.8879415347</v>
+        <v>17.798870411</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F553" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G553" t="n">
-        <v>0</v>
+        <v>3.6161335188</v>
       </c>
       <c r="H553" t="n">
         <v>0</v>
@@ -14815,25 +14815,25 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B554" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C554" t="n">
-        <v>496</v>
+        <v>4251</v>
       </c>
       <c r="D554" t="n">
-        <v>1.8879415347</v>
+        <v>16.67320364</v>
       </c>
       <c r="E554" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F554" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>10.709318498</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14841,51 +14841,51 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B555" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C555" t="n">
-        <v>496</v>
+        <v>1688</v>
       </c>
       <c r="D555" t="n">
-        <v>1.8879415347</v>
+        <v>6.6206463759</v>
       </c>
       <c r="E555" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>9.8748261474</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B556" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C556" t="n">
-        <v>1293</v>
+        <v>1225</v>
       </c>
       <c r="D556" t="n">
-        <v>4.921589525</v>
+        <v>4.8046752432</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F556" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>11.40472879</v>
       </c>
       <c r="H556" t="n">
         <v>0</v>
@@ -14893,25 +14893,25 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B557" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C557" t="n">
-        <v>1293</v>
+        <v>795</v>
       </c>
       <c r="D557" t="n">
-        <v>4.921589525</v>
+        <v>3.1181361782</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F557" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>10.987482615</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14919,25 +14919,25 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B558" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C558" t="n">
-        <v>1293</v>
+        <v>601</v>
       </c>
       <c r="D558" t="n">
-        <v>4.921589525</v>
+        <v>2.3572325071</v>
       </c>
       <c r="E558" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>11.543810848</v>
       </c>
       <c r="H558" t="n">
         <v>0</v>
@@ -14945,25 +14945,25 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B559" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C559" t="n">
-        <v>1293</v>
+        <v>1116</v>
       </c>
       <c r="D559" t="n">
-        <v>4.921589525</v>
+        <v>4.3771572011</v>
       </c>
       <c r="E559" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>39.49930459</v>
       </c>
       <c r="H559" t="n">
         <v>0</v>
@@ -14971,25 +14971,25 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B560" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C560" t="n">
-        <v>4901</v>
+        <v>18</v>
       </c>
       <c r="D560" t="n">
-        <v>18.654841657</v>
+        <v>0.0705993097</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H560" t="n">
         <v>0</v>
@@ -15000,25 +15000,25 @@
         <v>44027</v>
       </c>
       <c r="B561" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C561" t="n">
-        <v>4901</v>
+        <v>111</v>
       </c>
       <c r="D561" t="n">
-        <v>18.654841657</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F561" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -15026,22 +15026,22 @@
         <v>44027</v>
       </c>
       <c r="B562" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C562" t="n">
-        <v>4901</v>
+        <v>496</v>
       </c>
       <c r="D562" t="n">
-        <v>18.654841657</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E562" t="n">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="F562" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H562" t="n">
         <v>0</v>
@@ -15052,25 +15052,25 @@
         <v>44027</v>
       </c>
       <c r="B563" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C563" t="n">
-        <v>4901</v>
+        <v>1293</v>
       </c>
       <c r="D563" t="n">
-        <v>18.654841657</v>
+        <v>4.921589525</v>
       </c>
       <c r="E563" t="n">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="F563" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G563" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -15078,25 +15078,25 @@
         <v>44027</v>
       </c>
       <c r="B564" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C564" t="n">
-        <v>4867</v>
+        <v>4901</v>
       </c>
       <c r="D564" t="n">
-        <v>18.525426309</v>
+        <v>18.654841657</v>
       </c>
       <c r="E564" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="F564" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G564" t="n">
-        <v>1.6483516484</v>
+        <v>0.5494505495</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
@@ -15113,7 +15113,7 @@
         <v>18.525426309</v>
       </c>
       <c r="E565" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F565" t="n">
         <v>12</v>
@@ -15130,25 +15130,25 @@
         <v>44027</v>
       </c>
       <c r="B566" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C566" t="n">
-        <v>4867</v>
+        <v>4684</v>
       </c>
       <c r="D566" t="n">
-        <v>18.525426309</v>
+        <v>17.828867235</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F566" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G566" t="n">
-        <v>1.6483516484</v>
+        <v>3.8461538462</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -15156,22 +15156,22 @@
         <v>44027</v>
       </c>
       <c r="B567" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C567" t="n">
-        <v>4867</v>
+        <v>4353</v>
       </c>
       <c r="D567" t="n">
-        <v>18.525426309</v>
+        <v>16.568970767</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F567" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G567" t="n">
-        <v>1.6483516484</v>
+        <v>10.576923077</v>
       </c>
       <c r="H567" t="n">
         <v>0</v>
@@ -15182,25 +15182,25 @@
         <v>44027</v>
       </c>
       <c r="B568" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C568" t="n">
-        <v>4684</v>
+        <v>1735</v>
       </c>
       <c r="D568" t="n">
-        <v>17.828867235</v>
+        <v>6.6039890378</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F568" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G568" t="n">
-        <v>3.8461538462</v>
+        <v>10.164835165</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -15208,22 +15208,22 @@
         <v>44027</v>
       </c>
       <c r="B569" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C569" t="n">
-        <v>4684</v>
+        <v>1266</v>
       </c>
       <c r="D569" t="n">
-        <v>17.828867235</v>
+        <v>4.818818514</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F569" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G569" t="n">
-        <v>3.8461538462</v>
+        <v>11.538461538</v>
       </c>
       <c r="H569" t="n">
         <v>2</v>
@@ -15234,22 +15234,22 @@
         <v>44027</v>
       </c>
       <c r="B570" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C570" t="n">
-        <v>4684</v>
+        <v>807</v>
       </c>
       <c r="D570" t="n">
-        <v>17.828867235</v>
+        <v>3.0717113276</v>
       </c>
       <c r="E570" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F570" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G570" t="n">
-        <v>3.8461538462</v>
+        <v>10.851648352</v>
       </c>
       <c r="H570" t="n">
         <v>0</v>
@@ -15260,22 +15260,22 @@
         <v>44027</v>
       </c>
       <c r="B571" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C571" t="n">
-        <v>4684</v>
+        <v>615</v>
       </c>
       <c r="D571" t="n">
-        <v>17.828867235</v>
+        <v>2.3408952497</v>
       </c>
       <c r="E571" t="n">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="F571" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G571" t="n">
-        <v>3.8461538462</v>
+        <v>11.675824176</v>
       </c>
       <c r="H571" t="n">
         <v>2</v>
@@ -15286,25 +15286,25 @@
         <v>44027</v>
       </c>
       <c r="B572" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C572" t="n">
-        <v>4353</v>
+        <v>1126</v>
       </c>
       <c r="D572" t="n">
-        <v>16.568970767</v>
+        <v>4.2859317905</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F572" t="n">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="G572" t="n">
-        <v>10.576923077</v>
+        <v>39.148351648</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -15312,22 +15312,22 @@
         <v>44027</v>
       </c>
       <c r="B573" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C573" t="n">
-        <v>4353</v>
+        <v>18</v>
       </c>
       <c r="D573" t="n">
-        <v>16.568970767</v>
+        <v>0.0685140073</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H573" t="n">
         <v>0</v>
@@ -15335,25 +15335,25 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B574" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C574" t="n">
-        <v>4353</v>
+        <v>117</v>
       </c>
       <c r="D574" t="n">
-        <v>16.568970767</v>
+        <v>0.434298441</v>
       </c>
       <c r="E574" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="F574" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G574" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H574" t="n">
         <v>0</v>
@@ -15361,25 +15361,25 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B575" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C575" t="n">
-        <v>4353</v>
+        <v>513</v>
       </c>
       <c r="D575" t="n">
-        <v>16.568970767</v>
+        <v>1.9042316258</v>
       </c>
       <c r="E575" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F575" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H575" t="n">
         <v>0</v>
@@ -15387,25 +15387,25 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B576" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C576" t="n">
-        <v>1735</v>
+        <v>1343</v>
       </c>
       <c r="D576" t="n">
-        <v>6.6039890378</v>
+        <v>4.9851521901</v>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F576" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>10.164835165</v>
+        <v>0</v>
       </c>
       <c r="H576" t="n">
         <v>0</v>
@@ -15413,51 +15413,51 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B577" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C577" t="n">
-        <v>1735</v>
+        <v>5075</v>
       </c>
       <c r="D577" t="n">
-        <v>6.6039890378</v>
+        <v>18.838158872</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="F577" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="G577" t="n">
-        <v>10.164835165</v>
+        <v>0.5442176871</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B578" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C578" t="n">
-        <v>1735</v>
+        <v>5011</v>
       </c>
       <c r="D578" t="n">
-        <v>6.6039890378</v>
+        <v>18.600593912</v>
       </c>
       <c r="E578" t="n">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F578" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G578" t="n">
-        <v>10.164835165</v>
+        <v>1.6326530612</v>
       </c>
       <c r="H578" t="n">
         <v>0</v>
@@ -15465,129 +15465,129 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B579" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C579" t="n">
-        <v>1735</v>
+        <v>4796</v>
       </c>
       <c r="D579" t="n">
-        <v>6.6039890378</v>
+        <v>17.802524128</v>
       </c>
       <c r="E579" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F579" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G579" t="n">
-        <v>10.164835165</v>
+        <v>3.8095238095</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B580" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C580" t="n">
-        <v>1266</v>
+        <v>4428</v>
       </c>
       <c r="D580" t="n">
-        <v>4.818818514</v>
+        <v>16.436525612</v>
       </c>
       <c r="E580" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F580" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G580" t="n">
-        <v>11.538461538</v>
+        <v>10.476190476</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B581" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C581" t="n">
-        <v>1266</v>
+        <v>1769</v>
       </c>
       <c r="D581" t="n">
-        <v>4.818818514</v>
+        <v>6.5664439495</v>
       </c>
       <c r="E581" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F581" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G581" t="n">
-        <v>11.538461538</v>
+        <v>10.340136054</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B582" t="s">
         <v>16</v>
       </c>
       <c r="C582" t="n">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="D582" t="n">
-        <v>4.818818514</v>
+        <v>4.7847067558</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F582" t="n">
         <v>84</v>
       </c>
       <c r="G582" t="n">
-        <v>11.538461538</v>
+        <v>11.428571429</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B583" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C583" t="n">
-        <v>1266</v>
+        <v>820</v>
       </c>
       <c r="D583" t="n">
-        <v>4.818818514</v>
+        <v>3.0438010393</v>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F583" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G583" t="n">
-        <v>11.538461538</v>
+        <v>10.74829932</v>
       </c>
       <c r="H583" t="n">
         <v>0</v>
@@ -15595,417 +15595,79 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B584" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C584" t="n">
-        <v>807</v>
+        <v>622</v>
       </c>
       <c r="D584" t="n">
-        <v>3.0717113276</v>
+        <v>2.3088344469</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F584" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G584" t="n">
-        <v>10.851648352</v>
+        <v>11.836734694</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B585" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C585" t="n">
-        <v>807</v>
+        <v>1138</v>
       </c>
       <c r="D585" t="n">
-        <v>3.0717113276</v>
+        <v>4.2242019302</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F585" t="n">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="G585" t="n">
-        <v>10.851648352</v>
+        <v>39.183673469</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B586" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C586" t="n">
-        <v>807</v>
+        <v>19</v>
       </c>
       <c r="D586" t="n">
-        <v>3.0717113276</v>
+        <v>0.0705270973</v>
       </c>
       <c r="E586" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F586" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G586" t="n">
-        <v>10.851648352</v>
+        <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B587" t="s">
-        <v>17</v>
-      </c>
-      <c r="C587" t="n">
-        <v>807</v>
-      </c>
-      <c r="D587" t="n">
-        <v>3.0717113276</v>
-      </c>
-      <c r="E587" t="n">
-        <v>11</v>
-      </c>
-      <c r="F587" t="n">
-        <v>79</v>
-      </c>
-      <c r="G587" t="n">
-        <v>10.851648352</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B588" t="s">
-        <v>18</v>
-      </c>
-      <c r="C588" t="n">
-        <v>615</v>
-      </c>
-      <c r="D588" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E588" t="n">
-        <v>0</v>
-      </c>
-      <c r="F588" t="n">
-        <v>85</v>
-      </c>
-      <c r="G588" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B589" t="s">
-        <v>18</v>
-      </c>
-      <c r="C589" t="n">
-        <v>615</v>
-      </c>
-      <c r="D589" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E589" t="n">
-        <v>0</v>
-      </c>
-      <c r="F589" t="n">
-        <v>85</v>
-      </c>
-      <c r="G589" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H589" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B590" t="s">
-        <v>18</v>
-      </c>
-      <c r="C590" t="n">
-        <v>615</v>
-      </c>
-      <c r="D590" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E590" t="n">
-        <v>14</v>
-      </c>
-      <c r="F590" t="n">
-        <v>85</v>
-      </c>
-      <c r="G590" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B591" t="s">
-        <v>18</v>
-      </c>
-      <c r="C591" t="n">
-        <v>615</v>
-      </c>
-      <c r="D591" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E591" t="n">
-        <v>14</v>
-      </c>
-      <c r="F591" t="n">
-        <v>85</v>
-      </c>
-      <c r="G591" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H591" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B592" t="s">
-        <v>19</v>
-      </c>
-      <c r="C592" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D592" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E592" t="n">
-        <v>0</v>
-      </c>
-      <c r="F592" t="n">
-        <v>285</v>
-      </c>
-      <c r="G592" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B593" t="s">
-        <v>19</v>
-      </c>
-      <c r="C593" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D593" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E593" t="n">
-        <v>0</v>
-      </c>
-      <c r="F593" t="n">
-        <v>285</v>
-      </c>
-      <c r="G593" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H593" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B594" t="s">
-        <v>19</v>
-      </c>
-      <c r="C594" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D594" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E594" t="n">
-        <v>10</v>
-      </c>
-      <c r="F594" t="n">
-        <v>285</v>
-      </c>
-      <c r="G594" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B595" t="s">
-        <v>19</v>
-      </c>
-      <c r="C595" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D595" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E595" t="n">
-        <v>10</v>
-      </c>
-      <c r="F595" t="n">
-        <v>285</v>
-      </c>
-      <c r="G595" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B596" t="s">
-        <v>20</v>
-      </c>
-      <c r="C596" t="n">
-        <v>18</v>
-      </c>
-      <c r="D596" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E596" t="n">
-        <v>0</v>
-      </c>
-      <c r="F596" t="n">
-        <v>0</v>
-      </c>
-      <c r="G596" t="n">
-        <v>0</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B597" t="s">
-        <v>20</v>
-      </c>
-      <c r="C597" t="n">
-        <v>18</v>
-      </c>
-      <c r="D597" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E597" t="n">
-        <v>0</v>
-      </c>
-      <c r="F597" t="n">
-        <v>0</v>
-      </c>
-      <c r="G597" t="n">
-        <v>0</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B598" t="s">
-        <v>20</v>
-      </c>
-      <c r="C598" t="n">
-        <v>18</v>
-      </c>
-      <c r="D598" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E598" t="n">
-        <v>0</v>
-      </c>
-      <c r="F598" t="n">
-        <v>0</v>
-      </c>
-      <c r="G598" t="n">
-        <v>0</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B599" t="s">
-        <v>20</v>
-      </c>
-      <c r="C599" t="n">
-        <v>18</v>
-      </c>
-      <c r="D599" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E599" t="n">
-        <v>0</v>
-      </c>
-      <c r="F599" t="n">
-        <v>0</v>
-      </c>
-      <c r="G599" t="n">
-        <v>0</v>
-      </c>
-      <c r="H599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19327,80 +18989,80 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>12560</v>
+        <v>12249</v>
       </c>
       <c r="D128" t="n">
-        <v>47.807551766</v>
+        <v>48.042830248</v>
       </c>
       <c r="E128" t="n">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G128" t="n">
-        <v>41.208791209</v>
+        <v>41.585535466</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C129" t="n">
-        <v>12560</v>
+        <v>12955</v>
       </c>
       <c r="D129" t="n">
-        <v>47.807551766</v>
+        <v>50.811892062</v>
       </c>
       <c r="E129" t="n">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="G129" t="n">
-        <v>41.208791209</v>
+        <v>58.275382476</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>12560</v>
+        <v>292</v>
       </c>
       <c r="D130" t="n">
-        <v>47.807551766</v>
+        <v>1.1452776906</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>41.208791209</v>
+        <v>0.1390820584</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="131">
@@ -19417,7 +19079,7 @@
         <v>47.807551766</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="F131" t="n">
         <v>300</v>
@@ -19426,7 +19088,7 @@
         <v>41.208791209</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -19443,7 +19105,7 @@
         <v>50.886875761</v>
       </c>
       <c r="E132" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F132" t="n">
         <v>427</v>
@@ -19452,7 +19114,7 @@
         <v>58.653846154</v>
       </c>
       <c r="H132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -19460,22 +19122,22 @@
         <v>44027</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>13369</v>
+        <v>343</v>
       </c>
       <c r="D133" t="n">
-        <v>50.886875761</v>
+        <v>1.3055724726</v>
       </c>
       <c r="E133" t="n">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="F133" t="n">
-        <v>427</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>58.653846154</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -19483,157 +19145,79 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>13369</v>
+        <v>12852</v>
       </c>
       <c r="D134" t="n">
-        <v>50.886875761</v>
+        <v>47.706013363</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="F134" t="n">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="G134" t="n">
-        <v>58.653846154</v>
+        <v>41.224489796</v>
       </c>
       <c r="H134" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" t="n">
-        <v>13369</v>
+        <v>13723</v>
       </c>
       <c r="D135" t="n">
-        <v>50.886875761</v>
+        <v>50.939123979</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="F135" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G135" t="n">
-        <v>58.653846154</v>
+        <v>58.639455782</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
       </c>
       <c r="C136" t="n">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3055724726</v>
+        <v>1.3548626578</v>
       </c>
       <c r="E136" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1373626374</v>
+        <v>0.1360544218</v>
       </c>
       <c r="H136" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="n">
-        <v>343</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E137" t="n">
-        <v>50</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="n">
-        <v>343</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" t="n">
-        <v>343</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26075,25 +25659,25 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
       </c>
       <c r="C248" t="n">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D248" t="n">
-        <v>2.4779232643</v>
+        <v>2.5180420458</v>
       </c>
       <c r="E248" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>14</v>
       </c>
       <c r="G248" t="n">
-        <v>1.9230769231</v>
+        <v>1.9471488178</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -26101,25 +25685,25 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C249" t="n">
-        <v>651</v>
+        <v>2916</v>
       </c>
       <c r="D249" t="n">
-        <v>2.4779232643</v>
+        <v>11.437088171</v>
       </c>
       <c r="E249" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G249" t="n">
-        <v>1.9230769231</v>
+        <v>12.795549374</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -26127,25 +25711,25 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C250" t="n">
-        <v>651</v>
+        <v>10134</v>
       </c>
       <c r="D250" t="n">
-        <v>2.4779232643</v>
+        <v>39.747411359</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F250" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="G250" t="n">
-        <v>1.9230769231</v>
+        <v>29.207232267</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -26153,25 +25737,25 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B251" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C251" t="n">
-        <v>651</v>
+        <v>133</v>
       </c>
       <c r="D251" t="n">
-        <v>2.4779232643</v>
+        <v>0.521650455</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>1.9230769231</v>
+        <v>0.1390820584</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -26179,51 +25763,51 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B252" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C252" t="n">
-        <v>2989</v>
+        <v>5325</v>
       </c>
       <c r="D252" t="n">
-        <v>11.377131547</v>
+        <v>20.885629118</v>
       </c>
       <c r="E252" t="n">
-        <v>74</v>
+        <v>-2</v>
       </c>
       <c r="F252" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G252" t="n">
-        <v>12.912087912</v>
+        <v>12.795549374</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B253" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>2989</v>
+        <v>6346</v>
       </c>
       <c r="D253" t="n">
-        <v>11.377131547</v>
+        <v>24.890178852</v>
       </c>
       <c r="E253" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F253" t="n">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="G253" t="n">
-        <v>12.912087912</v>
+        <v>43.115438108</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -26234,25 +25818,25 @@
         <v>44027</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C254" t="n">
-        <v>2989</v>
+        <v>651</v>
       </c>
       <c r="D254" t="n">
-        <v>11.377131547</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G254" t="n">
-        <v>12.912087912</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -26269,7 +25853,7 @@
         <v>11.377131547</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F255" t="n">
         <v>94</v>
@@ -26278,7 +25862,7 @@
         <v>12.912087912</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -26295,7 +25879,7 @@
         <v>40.09591961</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F256" t="n">
         <v>211</v>
@@ -26304,7 +25888,7 @@
         <v>28.983516484</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -26312,25 +25896,25 @@
         <v>44027</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C257" t="n">
-        <v>10534</v>
+        <v>135</v>
       </c>
       <c r="D257" t="n">
-        <v>40.09591961</v>
+        <v>0.5138550548</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F257" t="n">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>28.983516484</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -26338,25 +25922,25 @@
         <v>44027</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C258" t="n">
-        <v>10534</v>
+        <v>5441</v>
       </c>
       <c r="D258" t="n">
-        <v>40.09591961</v>
+        <v>20.710261876</v>
       </c>
       <c r="E258" t="n">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="F258" t="n">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="G258" t="n">
-        <v>28.983516484</v>
+        <v>12.774725275</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -26364,117 +25948,117 @@
         <v>44027</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C259" t="n">
-        <v>10534</v>
+        <v>6522</v>
       </c>
       <c r="D259" t="n">
-        <v>40.09591961</v>
+        <v>24.824908648</v>
       </c>
       <c r="E259" t="n">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="F259" t="n">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="G259" t="n">
-        <v>28.983516484</v>
+        <v>43.269230769</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B260" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C260" t="n">
-        <v>135</v>
+        <v>654</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5138550548</v>
+        <v>2.4276169265</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F260" t="n">
+        <v>15</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.0408163265</v>
+      </c>
+      <c r="H260" t="n">
         <v>1</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B261" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C261" t="n">
-        <v>135</v>
+        <v>3061</v>
       </c>
       <c r="D261" t="n">
-        <v>0.5138550548</v>
+        <v>11.362286563</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F261" t="n">
+        <v>95</v>
+      </c>
+      <c r="G261" t="n">
+        <v>12.925170068</v>
+      </c>
+      <c r="H261" t="n">
         <v>1</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C262" t="n">
-        <v>135</v>
+        <v>10891</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5138550548</v>
+        <v>40.426874536</v>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1373626374</v>
+        <v>29.115646259</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B263" t="s">
         <v>26</v>
       </c>
       <c r="C263" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D263" t="n">
-        <v>0.5138550548</v>
+        <v>0.5085374907</v>
       </c>
       <c r="E263" t="n">
         <v>2</v>
@@ -26483,7 +26067,7 @@
         <v>1</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1373626374</v>
+        <v>0.1360544218</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -26491,25 +26075,25 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
       </c>
       <c r="C264" t="n">
-        <v>5441</v>
+        <v>5556</v>
       </c>
       <c r="D264" t="n">
-        <v>20.710261876</v>
+        <v>20.623608018</v>
       </c>
       <c r="E264" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F264" t="n">
         <v>93</v>
       </c>
       <c r="G264" t="n">
-        <v>12.774725275</v>
+        <v>12.653061224</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -26517,184 +26101,28 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C265" t="n">
-        <v>5441</v>
+        <v>6641</v>
       </c>
       <c r="D265" t="n">
-        <v>20.710261876</v>
+        <v>24.651076466</v>
       </c>
       <c r="E265" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F265" t="n">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="G265" t="n">
-        <v>12.774725275</v>
+        <v>43.129251701</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B266" t="s">
-        <v>20</v>
-      </c>
-      <c r="C266" t="n">
-        <v>5441</v>
-      </c>
-      <c r="D266" t="n">
-        <v>20.710261876</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0</v>
-      </c>
-      <c r="F266" t="n">
-        <v>93</v>
-      </c>
-      <c r="G266" t="n">
-        <v>12.774725275</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B267" t="s">
-        <v>20</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5441</v>
-      </c>
-      <c r="D267" t="n">
-        <v>20.710261876</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0</v>
-      </c>
-      <c r="F267" t="n">
-        <v>93</v>
-      </c>
-      <c r="G267" t="n">
-        <v>12.774725275</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B268" t="s">
-        <v>27</v>
-      </c>
-      <c r="C268" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D268" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E268" t="n">
-        <v>183</v>
-      </c>
-      <c r="F268" t="n">
-        <v>315</v>
-      </c>
-      <c r="G268" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H268" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B269" t="s">
-        <v>27</v>
-      </c>
-      <c r="C269" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D269" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E269" t="n">
-        <v>183</v>
-      </c>
-      <c r="F269" t="n">
-        <v>315</v>
-      </c>
-      <c r="G269" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B270" t="s">
-        <v>27</v>
-      </c>
-      <c r="C270" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D270" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0</v>
-      </c>
-      <c r="F270" t="n">
-        <v>315</v>
-      </c>
-      <c r="G270" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H270" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B271" t="s">
-        <v>27</v>
-      </c>
-      <c r="C271" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D271" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0</v>
-      </c>
-      <c r="F271" t="n">
-        <v>315</v>
-      </c>
-      <c r="G271" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -15671,6 +15671,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B587" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" t="n">
+        <v>120</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.4375091148</v>
+      </c>
+      <c r="E587" t="n">
+        <v>3</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="n">
+        <v>524</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.9104564678</v>
+      </c>
+      <c r="E588" t="n">
+        <v>11</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D589" t="n">
+        <v>4.9912498177</v>
+      </c>
+      <c r="E589" t="n">
+        <v>26</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B590" t="s">
+        <v>11</v>
+      </c>
+      <c r="C590" t="n">
+        <v>5155</v>
+      </c>
+      <c r="D590" t="n">
+        <v>18.794662389</v>
+      </c>
+      <c r="E590" t="n">
+        <v>80</v>
+      </c>
+      <c r="F590" t="n">
+        <v>4</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.5405405405</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B591" t="s">
+        <v>12</v>
+      </c>
+      <c r="C591" t="n">
+        <v>5132</v>
+      </c>
+      <c r="D591" t="n">
+        <v>18.710806475</v>
+      </c>
+      <c r="E591" t="n">
+        <v>121</v>
+      </c>
+      <c r="F591" t="n">
+        <v>12</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.6216216216</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592" t="n">
+        <v>4860</v>
+      </c>
+      <c r="D592" t="n">
+        <v>17.719119148</v>
+      </c>
+      <c r="E592" t="n">
+        <v>64</v>
+      </c>
+      <c r="F592" t="n">
+        <v>28</v>
+      </c>
+      <c r="G592" t="n">
+        <v>3.7837837838</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593" t="n">
+        <v>4507</v>
+      </c>
+      <c r="D593" t="n">
+        <v>16.432113169</v>
+      </c>
+      <c r="E593" t="n">
+        <v>79</v>
+      </c>
+      <c r="F593" t="n">
+        <v>78</v>
+      </c>
+      <c r="G593" t="n">
+        <v>10.540540541</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B594" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D594" t="n">
+        <v>6.5845121773</v>
+      </c>
+      <c r="E594" t="n">
+        <v>37</v>
+      </c>
+      <c r="F594" t="n">
+        <v>76</v>
+      </c>
+      <c r="G594" t="n">
+        <v>10.27027027</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B595" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D595" t="n">
+        <v>4.8016625346</v>
+      </c>
+      <c r="E595" t="n">
+        <v>28</v>
+      </c>
+      <c r="F595" t="n">
+        <v>85</v>
+      </c>
+      <c r="G595" t="n">
+        <v>11.486486486</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596" t="n">
+        <v>836</v>
+      </c>
+      <c r="D596" t="n">
+        <v>3.0479801663</v>
+      </c>
+      <c r="E596" t="n">
+        <v>16</v>
+      </c>
+      <c r="F596" t="n">
+        <v>80</v>
+      </c>
+      <c r="G596" t="n">
+        <v>10.810810811</v>
+      </c>
+      <c r="H596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B597" t="s">
+        <v>18</v>
+      </c>
+      <c r="C597" t="n">
+        <v>630</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2.2969228526</v>
+      </c>
+      <c r="E597" t="n">
+        <v>8</v>
+      </c>
+      <c r="F597" t="n">
+        <v>87</v>
+      </c>
+      <c r="G597" t="n">
+        <v>11.756756757</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B598" t="s">
+        <v>19</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D598" t="n">
+        <v>4.2000875018</v>
+      </c>
+      <c r="E598" t="n">
+        <v>14</v>
+      </c>
+      <c r="F598" t="n">
+        <v>290</v>
+      </c>
+      <c r="G598" t="n">
+        <v>39.189189189</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B599" t="s">
+        <v>20</v>
+      </c>
+      <c r="C599" t="n">
+        <v>20</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.0729181858</v>
+      </c>
+      <c r="E599" t="n">
+        <v>1</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19221,6 +19559,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13014</v>
+      </c>
+      <c r="D137" t="n">
+        <v>47.447863497</v>
+      </c>
+      <c r="E137" t="n">
+        <v>162</v>
+      </c>
+      <c r="F137" t="n">
+        <v>305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41.216216216</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14044</v>
+      </c>
+      <c r="D138" t="n">
+        <v>51.203150066</v>
+      </c>
+      <c r="E138" t="n">
+        <v>321</v>
+      </c>
+      <c r="F138" t="n">
+        <v>434</v>
+      </c>
+      <c r="G138" t="n">
+        <v>58.648648649</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="n">
+        <v>370</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.3489864372</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1351351351</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -26125,6 +26541,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" t="n">
+        <v>656</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.3917164941</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>15</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2.027027027</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B267" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D267" t="n">
+        <v>11.408050168</v>
+      </c>
+      <c r="E267" t="n">
+        <v>68</v>
+      </c>
+      <c r="F267" t="n">
+        <v>95</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12.837837838</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" t="n">
+        <v>11113</v>
+      </c>
+      <c r="D268" t="n">
+        <v>40.516989937</v>
+      </c>
+      <c r="E268" t="n">
+        <v>222</v>
+      </c>
+      <c r="F268" t="n">
+        <v>216</v>
+      </c>
+      <c r="G268" t="n">
+        <v>29.189189189</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" t="n">
+        <v>138</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.503135482</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.1351351351</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B270" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5616</v>
+      </c>
+      <c r="D270" t="n">
+        <v>20.475426571</v>
+      </c>
+      <c r="E270" t="n">
+        <v>60</v>
+      </c>
+      <c r="F270" t="n">
+        <v>94</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12.702702703</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6776</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24.704681348</v>
+      </c>
+      <c r="E271" t="n">
+        <v>135</v>
+      </c>
+      <c r="F271" t="n">
+        <v>319</v>
+      </c>
+      <c r="G271" t="n">
+        <v>43.108108108</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -16009,6 +16009,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B600" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" t="n">
+        <v>125</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.4466359381</v>
+      </c>
+      <c r="E600" t="n">
+        <v>5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="n">
+        <v>530</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1.8937363776</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1396</v>
+      </c>
+      <c r="D602" t="n">
+        <v>4.9880301569</v>
+      </c>
+      <c r="E602" t="n">
+        <v>27</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" t="n">
+        <v>5282</v>
+      </c>
+      <c r="D603" t="n">
+        <v>18.873048201</v>
+      </c>
+      <c r="E603" t="n">
+        <v>127</v>
+      </c>
+      <c r="F603" t="n">
+        <v>5</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0.6675567423</v>
+      </c>
+      <c r="H603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D604" t="n">
+        <v>18.722978526</v>
+      </c>
+      <c r="E604" t="n">
+        <v>108</v>
+      </c>
+      <c r="F604" t="n">
+        <v>12</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.6021361816</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B605" t="s">
+        <v>13</v>
+      </c>
+      <c r="C605" t="n">
+        <v>4969</v>
+      </c>
+      <c r="D605" t="n">
+        <v>17.754671812</v>
+      </c>
+      <c r="E605" t="n">
+        <v>109</v>
+      </c>
+      <c r="F605" t="n">
+        <v>29</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3.8718291055</v>
+      </c>
+      <c r="H605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B606" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" t="n">
+        <v>4606</v>
+      </c>
+      <c r="D606" t="n">
+        <v>16.457641048</v>
+      </c>
+      <c r="E606" t="n">
+        <v>99</v>
+      </c>
+      <c r="F606" t="n">
+        <v>80</v>
+      </c>
+      <c r="G606" t="n">
+        <v>10.680907877</v>
+      </c>
+      <c r="H606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B607" t="s">
+        <v>15</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D607" t="n">
+        <v>6.5566155715</v>
+      </c>
+      <c r="E607" t="n">
+        <v>29</v>
+      </c>
+      <c r="F607" t="n">
+        <v>77</v>
+      </c>
+      <c r="G607" t="n">
+        <v>10.280373832</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B608" t="s">
+        <v>16</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D608" t="n">
+        <v>4.8236681316</v>
+      </c>
+      <c r="E608" t="n">
+        <v>33</v>
+      </c>
+      <c r="F608" t="n">
+        <v>86</v>
+      </c>
+      <c r="G608" t="n">
+        <v>11.481975968</v>
+      </c>
+      <c r="H608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609" t="n">
+        <v>845</v>
+      </c>
+      <c r="D609" t="n">
+        <v>3.0192589417</v>
+      </c>
+      <c r="E609" t="n">
+        <v>9</v>
+      </c>
+      <c r="F609" t="n">
+        <v>81</v>
+      </c>
+      <c r="G609" t="n">
+        <v>10.814419226</v>
+      </c>
+      <c r="H609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B610" t="s">
+        <v>18</v>
+      </c>
+      <c r="C610" t="n">
+        <v>635</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.2689105656</v>
+      </c>
+      <c r="E610" t="n">
+        <v>5</v>
+      </c>
+      <c r="F610" t="n">
+        <v>88</v>
+      </c>
+      <c r="G610" t="n">
+        <v>11.748998665</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B611" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D611" t="n">
+        <v>4.1233429807</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2</v>
+      </c>
+      <c r="F611" t="n">
+        <v>291</v>
+      </c>
+      <c r="G611" t="n">
+        <v>38.851802403</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B612" t="s">
+        <v>20</v>
+      </c>
+      <c r="C612" t="n">
+        <v>20</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.0714617501</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19637,6 +19975,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13153</v>
+      </c>
+      <c r="D140" t="n">
+        <v>46.996819952</v>
+      </c>
+      <c r="E140" t="n">
+        <v>139</v>
+      </c>
+      <c r="F140" t="n">
+        <v>310</v>
+      </c>
+      <c r="G140" t="n">
+        <v>41.388518024</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14459</v>
+      </c>
+      <c r="D141" t="n">
+        <v>51.663272234</v>
+      </c>
+      <c r="E141" t="n">
+        <v>415</v>
+      </c>
+      <c r="F141" t="n">
+        <v>438</v>
+      </c>
+      <c r="G141" t="n">
+        <v>58.477970628</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="n">
+        <v>375</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.3399078143</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.1335113485</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -26697,6 +27113,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" t="n">
+        <v>659</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.3546646657</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>16</v>
+      </c>
+      <c r="G272" t="n">
+        <v>2.1361815754</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B273" t="s">
+        <v>24</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3222</v>
+      </c>
+      <c r="D273" t="n">
+        <v>11.512487941</v>
+      </c>
+      <c r="E273" t="n">
+        <v>93</v>
+      </c>
+      <c r="F273" t="n">
+        <v>95</v>
+      </c>
+      <c r="G273" t="n">
+        <v>12.683578104</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="n">
+        <v>11347</v>
+      </c>
+      <c r="D274" t="n">
+        <v>40.543823918</v>
+      </c>
+      <c r="E274" t="n">
+        <v>234</v>
+      </c>
+      <c r="F274" t="n">
+        <v>219</v>
+      </c>
+      <c r="G274" t="n">
+        <v>29.238985314</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B275" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" t="n">
+        <v>140</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.5002322507</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.1335113485</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B276" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5665</v>
+      </c>
+      <c r="D276" t="n">
+        <v>20.241540715</v>
+      </c>
+      <c r="E276" t="n">
+        <v>49</v>
+      </c>
+      <c r="F276" t="n">
+        <v>94</v>
+      </c>
+      <c r="G276" t="n">
+        <v>12.550066756</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6954</v>
+      </c>
+      <c r="D277" t="n">
+        <v>24.847250509</v>
+      </c>
+      <c r="E277" t="n">
+        <v>178</v>
+      </c>
+      <c r="F277" t="n">
+        <v>324</v>
+      </c>
+      <c r="G277" t="n">
+        <v>43.257676903</v>
+      </c>
+      <c r="H277" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -16347,6 +16347,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B613" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" t="n">
+        <v>125</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.4431838327</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B614" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" t="n">
+        <v>537</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.9039177451</v>
+      </c>
+      <c r="E614" t="n">
+        <v>7</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B615" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D615" t="n">
+        <v>4.9955681617</v>
+      </c>
+      <c r="E615" t="n">
+        <v>13</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B616" t="s">
+        <v>11</v>
+      </c>
+      <c r="C616" t="n">
+        <v>5323</v>
+      </c>
+      <c r="D616" t="n">
+        <v>18.87254033</v>
+      </c>
+      <c r="E616" t="n">
+        <v>41</v>
+      </c>
+      <c r="F616" t="n">
+        <v>5</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0.6640106242</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B617" t="s">
+        <v>12</v>
+      </c>
+      <c r="C617" t="n">
+        <v>5301</v>
+      </c>
+      <c r="D617" t="n">
+        <v>18.794539975</v>
+      </c>
+      <c r="E617" t="n">
+        <v>61</v>
+      </c>
+      <c r="F617" t="n">
+        <v>12</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.593625498</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618" t="n">
+        <v>5013</v>
+      </c>
+      <c r="D618" t="n">
+        <v>17.773444425</v>
+      </c>
+      <c r="E618" t="n">
+        <v>44</v>
+      </c>
+      <c r="F618" t="n">
+        <v>29</v>
+      </c>
+      <c r="G618" t="n">
+        <v>3.8512616202</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B619" t="s">
+        <v>14</v>
+      </c>
+      <c r="C619" t="n">
+        <v>4626</v>
+      </c>
+      <c r="D619" t="n">
+        <v>16.401347279</v>
+      </c>
+      <c r="E619" t="n">
+        <v>20</v>
+      </c>
+      <c r="F619" t="n">
+        <v>80</v>
+      </c>
+      <c r="G619" t="n">
+        <v>10.624169987</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B620" t="s">
+        <v>15</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D620" t="n">
+        <v>6.5378478993</v>
+      </c>
+      <c r="E620" t="n">
+        <v>9</v>
+      </c>
+      <c r="F620" t="n">
+        <v>77</v>
+      </c>
+      <c r="G620" t="n">
+        <v>10.225763612</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B621" t="s">
+        <v>16</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D621" t="n">
+        <v>4.8076582166</v>
+      </c>
+      <c r="E621" t="n">
+        <v>6</v>
+      </c>
+      <c r="F621" t="n">
+        <v>87</v>
+      </c>
+      <c r="G621" t="n">
+        <v>11.553784861</v>
+      </c>
+      <c r="H621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B622" t="s">
+        <v>17</v>
+      </c>
+      <c r="C622" t="n">
+        <v>852</v>
+      </c>
+      <c r="D622" t="n">
+        <v>3.0207410034</v>
+      </c>
+      <c r="E622" t="n">
+        <v>7</v>
+      </c>
+      <c r="F622" t="n">
+        <v>82</v>
+      </c>
+      <c r="G622" t="n">
+        <v>10.889774236</v>
+      </c>
+      <c r="H622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B623" t="s">
+        <v>18</v>
+      </c>
+      <c r="C623" t="n">
+        <v>637</v>
+      </c>
+      <c r="D623" t="n">
+        <v>2.2584648112</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2</v>
+      </c>
+      <c r="F623" t="n">
+        <v>88</v>
+      </c>
+      <c r="G623" t="n">
+        <v>11.686586985</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B624" t="s">
+        <v>19</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1163</v>
+      </c>
+      <c r="D624" t="n">
+        <v>4.123382379</v>
+      </c>
+      <c r="E624" t="n">
+        <v>9</v>
+      </c>
+      <c r="F624" t="n">
+        <v>293</v>
+      </c>
+      <c r="G624" t="n">
+        <v>38.911022576</v>
+      </c>
+      <c r="H624" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B625" t="s">
+        <v>20</v>
+      </c>
+      <c r="C625" t="n">
+        <v>19</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.0673639426</v>
+      </c>
+      <c r="E625" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20053,6 +20391,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13244</v>
+      </c>
+      <c r="D143" t="n">
+        <v>46.956213437</v>
+      </c>
+      <c r="E143" t="n">
+        <v>91</v>
+      </c>
+      <c r="F143" t="n">
+        <v>312</v>
+      </c>
+      <c r="G143" t="n">
+        <v>41.434262948</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14586</v>
+      </c>
+      <c r="D144" t="n">
+        <v>51.714235065</v>
+      </c>
+      <c r="E144" t="n">
+        <v>127</v>
+      </c>
+      <c r="F144" t="n">
+        <v>440</v>
+      </c>
+      <c r="G144" t="n">
+        <v>58.432934927</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="n">
+        <v>375</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.329551498</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.1328021248</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -27269,6 +27685,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" t="n">
+        <v>661</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.3435561071</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>16</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2.1248339973</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3249</v>
+      </c>
+      <c r="D279" t="n">
+        <v>11.519234178</v>
+      </c>
+      <c r="E279" t="n">
+        <v>27</v>
+      </c>
+      <c r="F279" t="n">
+        <v>95</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12.616201859</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" t="n">
+        <v>11458</v>
+      </c>
+      <c r="D280" t="n">
+        <v>40.624002836</v>
+      </c>
+      <c r="E280" t="n">
+        <v>111</v>
+      </c>
+      <c r="F280" t="n">
+        <v>221</v>
+      </c>
+      <c r="G280" t="n">
+        <v>29.349269588</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" t="n">
+        <v>147</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.5211841872</v>
+      </c>
+      <c r="E281" t="n">
+        <v>7</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.2656042497</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5692</v>
+      </c>
+      <c r="D282" t="n">
+        <v>20.180819004</v>
+      </c>
+      <c r="E282" t="n">
+        <v>27</v>
+      </c>
+      <c r="F282" t="n">
+        <v>94</v>
+      </c>
+      <c r="G282" t="n">
+        <v>12.483399734</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6998</v>
+      </c>
+      <c r="D283" t="n">
+        <v>24.811203687</v>
+      </c>
+      <c r="E283" t="n">
+        <v>44</v>
+      </c>
+      <c r="F283" t="n">
+        <v>325</v>
+      </c>
+      <c r="G283" t="n">
+        <v>43.160690571</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -16685,6 +16685,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B626" t="s">
+        <v>8</v>
+      </c>
+      <c r="C626" t="n">
+        <v>125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.00442634560906516</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B627" t="s">
+        <v>9</v>
+      </c>
+      <c r="C627" t="n">
+        <v>537</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.0190155807365439</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.0498937677053824</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C629" t="n">
+        <v>5332</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.188810198300283</v>
+      </c>
+      <c r="E629" t="n">
+        <v>9</v>
+      </c>
+      <c r="F629" t="n">
+        <v>5</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0.00664010624169987</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B630" t="s">
+        <v>12</v>
+      </c>
+      <c r="C630" t="n">
+        <v>5309</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.187995750708215</v>
+      </c>
+      <c r="E630" t="n">
+        <v>8</v>
+      </c>
+      <c r="F630" t="n">
+        <v>12</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0.0159362549800797</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B631" t="s">
+        <v>13</v>
+      </c>
+      <c r="C631" t="n">
+        <v>5021</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.177797450424929</v>
+      </c>
+      <c r="E631" t="n">
+        <v>8</v>
+      </c>
+      <c r="F631" t="n">
+        <v>29</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0.0385126162018592</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B632" t="s">
+        <v>14</v>
+      </c>
+      <c r="C632" t="n">
+        <v>4632</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.164022662889518</v>
+      </c>
+      <c r="E632" t="n">
+        <v>6</v>
+      </c>
+      <c r="F632" t="n">
+        <v>80</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0.106241699867198</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B633" t="s">
+        <v>15</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.0654390934844193</v>
+      </c>
+      <c r="E633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>77</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0.102257636122178</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B634" t="s">
+        <v>16</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.0480169971671388</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+      <c r="F634" t="n">
+        <v>87</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.115537848605578</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B635" t="s">
+        <v>17</v>
+      </c>
+      <c r="C635" t="n">
+        <v>852</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.0301699716713881</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+      <c r="F635" t="n">
+        <v>82</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.108897742363878</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B636" t="s">
+        <v>18</v>
+      </c>
+      <c r="C636" t="n">
+        <v>637</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.022556657223796</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+      <c r="F636" t="n">
+        <v>88</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0.116865869853918</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B637" t="s">
+        <v>19</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1163</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.0411827195467422</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F637" t="n">
+        <v>293</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.389110225763612</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B638" t="s">
+        <v>20</v>
+      </c>
+      <c r="C638" t="n">
+        <v>19</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.000672804532577904</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20469,6 +20807,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13257</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.469440509915014</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>312</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.414342629482072</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14607</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.517245042492918</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>440</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.584329349269588</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="n">
+        <v>376</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.013314447592068</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.00132802124833997</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -27841,6 +28257,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" t="n">
+        <v>662</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0234419263456091</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>16</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0212483399734396</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3254</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.115226628895184</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>95</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.126162018592297</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B286" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" t="n">
+        <v>11471</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.406196883852691</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F286" t="n">
+        <v>221</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.293492695883134</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" t="n">
+        <v>63</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.00223087818696884</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-84</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.00132802124833997</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B288" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" t="n">
+        <v>5779</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2046388101983</v>
+      </c>
+      <c r="E288" t="n">
+        <v>87</v>
+      </c>
+      <c r="F288" t="n">
+        <v>94</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.124833997343958</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7011</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.248264872521246</v>
+      </c>
+      <c r="E289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F289" t="n">
+        <v>326</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.432934926958831</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -17023,6 +17023,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B639" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639" t="n">
+        <v>127</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.00443962805005943</v>
+      </c>
+      <c r="E639" t="n">
+        <v>2</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B640" t="s">
+        <v>9</v>
+      </c>
+      <c r="C640" t="n">
+        <v>546</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.0190869048451374</v>
+      </c>
+      <c r="E640" t="n">
+        <v>9</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.0497797664825561</v>
+      </c>
+      <c r="E641" t="n">
+        <v>15</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B642" t="s">
+        <v>11</v>
+      </c>
+      <c r="C642" t="n">
+        <v>5422</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.189540655806474</v>
+      </c>
+      <c r="E642" t="n">
+        <v>90</v>
+      </c>
+      <c r="F642" t="n">
+        <v>7</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.00923482849604222</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B643" t="s">
+        <v>12</v>
+      </c>
+      <c r="C643" t="n">
+        <v>5375</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.18789764385094</v>
+      </c>
+      <c r="E643" t="n">
+        <v>66</v>
+      </c>
+      <c r="F643" t="n">
+        <v>12</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.0158311345646438</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B644" t="s">
+        <v>13</v>
+      </c>
+      <c r="C644" t="n">
+        <v>5080</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.177585122002377</v>
+      </c>
+      <c r="E644" t="n">
+        <v>59</v>
+      </c>
+      <c r="F644" t="n">
+        <v>30</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.0395778364116095</v>
+      </c>
+      <c r="H644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B645" t="s">
+        <v>14</v>
+      </c>
+      <c r="C645" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.164231280151017</v>
+      </c>
+      <c r="E645" t="n">
+        <v>66</v>
+      </c>
+      <c r="F645" t="n">
+        <v>80</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.105540897097625</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B646" t="s">
+        <v>15</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.0653009858071733</v>
+      </c>
+      <c r="E646" t="n">
+        <v>20</v>
+      </c>
+      <c r="F646" t="n">
+        <v>78</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0.102902374670185</v>
+      </c>
+      <c r="H646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B647" t="s">
+        <v>16</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1376</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.0481017968258407</v>
+      </c>
+      <c r="E647" t="n">
+        <v>20</v>
+      </c>
+      <c r="F647" t="n">
+        <v>88</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0.116094986807388</v>
+      </c>
+      <c r="H647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B648" t="s">
+        <v>17</v>
+      </c>
+      <c r="C648" t="n">
+        <v>865</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.0302384115220583</v>
+      </c>
+      <c r="E648" t="n">
+        <v>13</v>
+      </c>
+      <c r="F648" t="n">
+        <v>82</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.108179419525066</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B649" t="s">
+        <v>18</v>
+      </c>
+      <c r="C649" t="n">
+        <v>639</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.0223379710550234</v>
+      </c>
+      <c r="E649" t="n">
+        <v>2</v>
+      </c>
+      <c r="F649" t="n">
+        <v>88</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0.116094986807388</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B650" t="s">
+        <v>19</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.040760679577711</v>
+      </c>
+      <c r="E650" t="n">
+        <v>3</v>
+      </c>
+      <c r="F650" t="n">
+        <v>293</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.386543535620053</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B651" t="s">
+        <v>20</v>
+      </c>
+      <c r="C651" t="n">
+        <v>20</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.000699154023631406</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20885,6 +21223,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13347</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.466580437670419</v>
+      </c>
+      <c r="E149" t="n">
+        <v>90</v>
+      </c>
+      <c r="F149" t="n">
+        <v>313</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.412928759894459</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14882</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.520240508984129</v>
+      </c>
+      <c r="E150" t="n">
+        <v>275</v>
+      </c>
+      <c r="F150" t="n">
+        <v>444</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.585751978891821</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="n">
+        <v>377</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.013179053345452</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.00131926121372032</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -28413,6 +28829,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" t="n">
+        <v>663</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0231769558833811</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>16</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0211081794195251</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B291" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3321</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.116094525623995</v>
+      </c>
+      <c r="E291" t="n">
+        <v>67</v>
+      </c>
+      <c r="F291" t="n">
+        <v>95</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.12532981530343</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B292" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" t="n">
+        <v>11622</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.40627840313221</v>
+      </c>
+      <c r="E292" t="n">
+        <v>151</v>
+      </c>
+      <c r="F292" t="n">
+        <v>223</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.294195250659631</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B293" t="s">
+        <v>26</v>
+      </c>
+      <c r="C293" t="n">
+        <v>146</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.00510382437250926</v>
+      </c>
+      <c r="E293" t="n">
+        <v>83</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.00131926121372032</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B294" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" t="n">
+        <v>5721</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.199993008459764</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F294" t="n">
+        <v>96</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.12664907651715</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7133</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.249353282528141</v>
+      </c>
+      <c r="E295" t="n">
+        <v>122</v>
+      </c>
+      <c r="F295" t="n">
+        <v>327</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.431398416886544</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -17361,6 +17361,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B652" t="s">
+        <v>8</v>
+      </c>
+      <c r="C652" t="n">
+        <v>130</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.00439367311072056</v>
+      </c>
+      <c r="E652" t="n">
+        <v>3</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B653" t="s">
+        <v>9</v>
+      </c>
+      <c r="C653" t="n">
+        <v>563</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.0190279843179667</v>
+      </c>
+      <c r="E653" t="n">
+        <v>17</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B654" t="s">
+        <v>10</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1464</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.049479518723807</v>
+      </c>
+      <c r="E654" t="n">
+        <v>40</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B655" t="s">
+        <v>11</v>
+      </c>
+      <c r="C655" t="n">
+        <v>5602</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.189333513586589</v>
+      </c>
+      <c r="E655" t="n">
+        <v>180</v>
+      </c>
+      <c r="F655" t="n">
+        <v>7</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0.00916230366492147</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B656" t="s">
+        <v>12</v>
+      </c>
+      <c r="C656" t="n">
+        <v>5594</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.189063133702853</v>
+      </c>
+      <c r="E656" t="n">
+        <v>219</v>
+      </c>
+      <c r="F656" t="n">
+        <v>12</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0.0157068062827225</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B657" t="s">
+        <v>13</v>
+      </c>
+      <c r="C657" t="n">
+        <v>5252</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.177504393673111</v>
+      </c>
+      <c r="E657" t="n">
+        <v>172</v>
+      </c>
+      <c r="F657" t="n">
+        <v>30</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0.0392670157068063</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B658" t="s">
+        <v>14</v>
+      </c>
+      <c r="C658" t="n">
+        <v>4878</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.164864134108422</v>
+      </c>
+      <c r="E658" t="n">
+        <v>180</v>
+      </c>
+      <c r="F658" t="n">
+        <v>81</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0.106020942408377</v>
+      </c>
+      <c r="H658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B659" t="s">
+        <v>15</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.065736109233473</v>
+      </c>
+      <c r="E659" t="n">
+        <v>77</v>
+      </c>
+      <c r="F659" t="n">
+        <v>78</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.102094240837696</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B660" t="s">
+        <v>16</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.0479586318777883</v>
+      </c>
+      <c r="E660" t="n">
+        <v>43</v>
+      </c>
+      <c r="F660" t="n">
+        <v>88</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.115183246073298</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B661" t="s">
+        <v>17</v>
+      </c>
+      <c r="C661" t="n">
+        <v>893</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.0301811545221036</v>
+      </c>
+      <c r="E661" t="n">
+        <v>28</v>
+      </c>
+      <c r="F661" t="n">
+        <v>84</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.109947643979058</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B662" t="s">
+        <v>18</v>
+      </c>
+      <c r="C662" t="n">
+        <v>653</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.0220697580100041</v>
+      </c>
+      <c r="E662" t="n">
+        <v>14</v>
+      </c>
+      <c r="F662" t="n">
+        <v>89</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.116492146596859</v>
+      </c>
+      <c r="H662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B663" t="s">
+        <v>19</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.0397120454238205</v>
+      </c>
+      <c r="E663" t="n">
+        <v>9</v>
+      </c>
+      <c r="F663" t="n">
+        <v>295</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.386125654450262</v>
+      </c>
+      <c r="H663" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B664" t="s">
+        <v>20</v>
+      </c>
+      <c r="C664" t="n">
+        <v>20</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.000675949709341625</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21301,6 +21639,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13566</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.458496687846424</v>
+      </c>
+      <c r="E152" t="n">
+        <v>219</v>
+      </c>
+      <c r="F152" t="n">
+        <v>315</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.412303664921466</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15634</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.528389887792348</v>
+      </c>
+      <c r="E153" t="n">
+        <v>752</v>
+      </c>
+      <c r="F153" t="n">
+        <v>448</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.586387434554974</v>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="n">
+        <v>388</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0131134243612275</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.00130890052356021</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -28985,6 +29401,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" t="n">
+        <v>671</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0226781127484115</v>
+      </c>
+      <c r="E296" t="n">
+        <v>8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>15</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0196335078534031</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3491</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.117987021765581</v>
+      </c>
+      <c r="E297" t="n">
+        <v>170</v>
+      </c>
+      <c r="F297" t="n">
+        <v>95</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.12434554973822</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B298" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" t="n">
+        <v>11999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.405536028119508</v>
+      </c>
+      <c r="E298" t="n">
+        <v>377</v>
+      </c>
+      <c r="F298" t="n">
+        <v>229</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.299738219895288</v>
+      </c>
+      <c r="H298" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B299" t="s">
+        <v>26</v>
+      </c>
+      <c r="C299" t="n">
+        <v>148</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.00500202784912802</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.00130890052356021</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B300" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5851</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.197749087467892</v>
+      </c>
+      <c r="E300" t="n">
+        <v>130</v>
+      </c>
+      <c r="F300" t="n">
+        <v>95</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.12434554973822</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B301" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" t="n">
+        <v>7428</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.25104772204948</v>
+      </c>
+      <c r="E301" t="n">
+        <v>295</v>
+      </c>
+      <c r="F301" t="n">
+        <v>329</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.430628272251309</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -17699,6 +17699,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B665" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" t="n">
+        <v>131</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.00431730547407969</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B666" t="s">
+        <v>9</v>
+      </c>
+      <c r="C666" t="n">
+        <v>570</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.0187852222917971</v>
+      </c>
+      <c r="E666" t="n">
+        <v>7</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B667" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.048874534489009</v>
+      </c>
+      <c r="E667" t="n">
+        <v>19</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B668" t="s">
+        <v>11</v>
+      </c>
+      <c r="C668" t="n">
+        <v>5752</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.189565962495468</v>
+      </c>
+      <c r="E668" t="n">
+        <v>150</v>
+      </c>
+      <c r="F668" t="n">
+        <v>7</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.00904392764857881</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B669" t="s">
+        <v>12</v>
+      </c>
+      <c r="C669" t="n">
+        <v>5747</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.189401179843786</v>
+      </c>
+      <c r="E669" t="n">
+        <v>153</v>
+      </c>
+      <c r="F669" t="n">
+        <v>12</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.0155038759689922</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B670" t="s">
+        <v>13</v>
+      </c>
+      <c r="C670" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.178624394423755</v>
+      </c>
+      <c r="E670" t="n">
+        <v>168</v>
+      </c>
+      <c r="F670" t="n">
+        <v>33</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.0426356589147287</v>
+      </c>
+      <c r="H670" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B671" t="s">
+        <v>14</v>
+      </c>
+      <c r="C671" t="n">
+        <v>5016</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.165309956167815</v>
+      </c>
+      <c r="E671" t="n">
+        <v>138</v>
+      </c>
+      <c r="F671" t="n">
+        <v>81</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.104651162790698</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B672" t="s">
+        <v>15</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.0657812345516264</v>
+      </c>
+      <c r="E672" t="n">
+        <v>51</v>
+      </c>
+      <c r="F672" t="n">
+        <v>80</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.103359173126615</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B673" t="s">
+        <v>16</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.0477540124575685</v>
+      </c>
+      <c r="E673" t="n">
+        <v>30</v>
+      </c>
+      <c r="F673" t="n">
+        <v>88</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.113695090439276</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B674" t="s">
+        <v>17</v>
+      </c>
+      <c r="C674" t="n">
+        <v>914</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.0301222687275484</v>
+      </c>
+      <c r="E674" t="n">
+        <v>21</v>
+      </c>
+      <c r="F674" t="n">
+        <v>84</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.108527131782946</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B675" t="s">
+        <v>18</v>
+      </c>
+      <c r="C675" t="n">
+        <v>657</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.0216524404310714</v>
+      </c>
+      <c r="E675" t="n">
+        <v>4</v>
+      </c>
+      <c r="F675" t="n">
+        <v>90</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.116279069767442</v>
+      </c>
+      <c r="H675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B676" t="s">
+        <v>19</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.0391853145700821</v>
+      </c>
+      <c r="E676" t="n">
+        <v>14</v>
+      </c>
+      <c r="F676" t="n">
+        <v>299</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.386304909560723</v>
+      </c>
+      <c r="H676" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B677" t="s">
+        <v>20</v>
+      </c>
+      <c r="C677" t="n">
+        <v>19</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.000626174076393237</v>
+      </c>
+      <c r="E677" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21717,6 +22055,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13704</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.451636291731207</v>
+      </c>
+      <c r="E155" t="n">
+        <v>138</v>
+      </c>
+      <c r="F155" t="n">
+        <v>319</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.412144702842377</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16187</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.533467356556702</v>
+      </c>
+      <c r="E156" t="n">
+        <v>553</v>
+      </c>
+      <c r="F156" t="n">
+        <v>454</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.58656330749354</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" t="n">
+        <v>452</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0148963517120918</v>
+      </c>
+      <c r="E157" t="n">
+        <v>64</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.00129198966408269</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29557,6 +29973,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="n">
+        <v>675</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.0222456579771282</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4</v>
+      </c>
+      <c r="F302" t="n">
+        <v>16</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.020671834625323</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B303" t="s">
+        <v>24</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3644</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.120093596546156</v>
+      </c>
+      <c r="E303" t="n">
+        <v>153</v>
+      </c>
+      <c r="F303" t="n">
+        <v>96</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.124031007751938</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B304" t="s">
+        <v>25</v>
+      </c>
+      <c r="C304" t="n">
+        <v>12252</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.403783409682629</v>
+      </c>
+      <c r="E304" t="n">
+        <v>253</v>
+      </c>
+      <c r="F304" t="n">
+        <v>232</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.299741602067183</v>
+      </c>
+      <c r="H304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B305" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" t="n">
+        <v>150</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.00494347955047293</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.00129198966408269</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B306" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5928</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.19536631183469</v>
+      </c>
+      <c r="E306" t="n">
+        <v>77</v>
+      </c>
+      <c r="F306" t="n">
+        <v>95</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.122739018087855</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B307" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7694</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.253567544408925</v>
+      </c>
+      <c r="E307" t="n">
+        <v>266</v>
+      </c>
+      <c r="F307" t="n">
+        <v>334</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.431524547803618</v>
+      </c>
+      <c r="H307" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -18037,6 +18037,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678" t="n">
+        <v>135</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.00434810615820665</v>
+      </c>
+      <c r="E678" t="n">
+        <v>4</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679" t="n">
+        <v>577</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.0185841278021129</v>
+      </c>
+      <c r="E679" t="n">
+        <v>7</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1496</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.0481834578716826</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.189384179335223</v>
+      </c>
+      <c r="E681" t="n">
+        <v>128</v>
+      </c>
+      <c r="F681" t="n">
+        <v>7</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.00902061855670103</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.18986730224169</v>
+      </c>
+      <c r="E682" t="n">
+        <v>148</v>
+      </c>
+      <c r="F682" t="n">
+        <v>12</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.0154639175257732</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B683" t="s">
+        <v>13</v>
+      </c>
+      <c r="C683" t="n">
+        <v>5564</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.179206390105643</v>
+      </c>
+      <c r="E683" t="n">
+        <v>144</v>
+      </c>
+      <c r="F683" t="n">
+        <v>34</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.0438144329896907</v>
+      </c>
+      <c r="H683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B684" t="s">
+        <v>14</v>
+      </c>
+      <c r="C684" t="n">
+        <v>5177</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.166741819118784</v>
+      </c>
+      <c r="E684" t="n">
+        <v>161</v>
+      </c>
+      <c r="F684" t="n">
+        <v>80</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.103092783505155</v>
+      </c>
+      <c r="H684" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B685" t="s">
+        <v>15</v>
+      </c>
+      <c r="C685" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.0657369234733316</v>
+      </c>
+      <c r="E685" t="n">
+        <v>45</v>
+      </c>
+      <c r="F685" t="n">
+        <v>80</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.103092783505155</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B686" t="s">
+        <v>16</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1477</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.0475715021901572</v>
+      </c>
+      <c r="E686" t="n">
+        <v>28</v>
+      </c>
+      <c r="F686" t="n">
+        <v>88</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.11340206185567</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B687" t="s">
+        <v>17</v>
+      </c>
+      <c r="C687" t="n">
+        <v>931</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.0299858283947436</v>
+      </c>
+      <c r="E687" t="n">
+        <v>17</v>
+      </c>
+      <c r="F687" t="n">
+        <v>85</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.109536082474227</v>
+      </c>
+      <c r="H687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B688" t="s">
+        <v>18</v>
+      </c>
+      <c r="C688" t="n">
+        <v>661</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.0212896160783303</v>
+      </c>
+      <c r="E688" t="n">
+        <v>4</v>
+      </c>
+      <c r="F688" t="n">
+        <v>90</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.115979381443299</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B689" t="s">
+        <v>19</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.0384565833548055</v>
+      </c>
+      <c r="E689" t="n">
+        <v>5</v>
+      </c>
+      <c r="F689" t="n">
+        <v>300</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.38659793814433</v>
+      </c>
+      <c r="H689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B690" t="s">
+        <v>20</v>
+      </c>
+      <c r="C690" t="n">
+        <v>20</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.000644163875289874</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22133,6 +22471,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="n">
+        <v>13786</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.44402215923731</v>
+      </c>
+      <c r="E158" t="n">
+        <v>82</v>
+      </c>
+      <c r="F158" t="n">
+        <v>320</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.412371134020619</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16739</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.53913295542386</v>
+      </c>
+      <c r="E159" t="n">
+        <v>552</v>
+      </c>
+      <c r="F159" t="n">
+        <v>455</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.586340206185567</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="n">
+        <v>523</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0168448853388302</v>
+      </c>
+      <c r="E160" t="n">
+        <v>71</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.00128865979381443</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -30129,6 +30545,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" t="n">
+        <v>678</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0218371553723267</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3</v>
+      </c>
+      <c r="F308" t="n">
+        <v>16</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0206185567010309</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3822</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.123099716567895</v>
+      </c>
+      <c r="E309" t="n">
+        <v>178</v>
+      </c>
+      <c r="F309" t="n">
+        <v>96</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.123711340206186</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12511</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.402956712187581</v>
+      </c>
+      <c r="E310" t="n">
+        <v>259</v>
+      </c>
+      <c r="F310" t="n">
+        <v>234</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.301546391752577</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311" t="n">
+        <v>150</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.00483122906467405</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.00128865979381443</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" t="n">
+        <v>5950</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.191638752898737</v>
+      </c>
+      <c r="E312" t="n">
+        <v>22</v>
+      </c>
+      <c r="F312" t="n">
+        <v>95</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.122422680412371</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7937</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.255636433908786</v>
+      </c>
+      <c r="E313" t="n">
+        <v>243</v>
+      </c>
+      <c r="F313" t="n">
+        <v>334</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.430412371134021</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -18375,6 +18375,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B691" t="s">
+        <v>8</v>
+      </c>
+      <c r="C691" t="n">
+        <v>135</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.00424101533048505</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B692" t="s">
+        <v>9</v>
+      </c>
+      <c r="C692" t="n">
+        <v>582</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.0182834883136466</v>
+      </c>
+      <c r="E692" t="n">
+        <v>5</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B693" t="s">
+        <v>10</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1509</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.0474051269163106</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B694" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" t="n">
+        <v>6017</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.189023624026137</v>
+      </c>
+      <c r="E694" t="n">
+        <v>137</v>
+      </c>
+      <c r="F694" t="n">
+        <v>7</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.00892857142857143</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B695" t="s">
+        <v>12</v>
+      </c>
+      <c r="C695" t="n">
+        <v>6077</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.190908519728575</v>
+      </c>
+      <c r="E695" t="n">
+        <v>182</v>
+      </c>
+      <c r="F695" t="n">
+        <v>12</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.0153061224489796</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B696" t="s">
+        <v>13</v>
+      </c>
+      <c r="C696" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.180510178436793</v>
+      </c>
+      <c r="E696" t="n">
+        <v>182</v>
+      </c>
+      <c r="F696" t="n">
+        <v>36</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.0459183673469388</v>
+      </c>
+      <c r="H696" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B697" t="s">
+        <v>14</v>
+      </c>
+      <c r="C697" t="n">
+        <v>5319</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.167096004021111</v>
+      </c>
+      <c r="E697" t="n">
+        <v>142</v>
+      </c>
+      <c r="F697" t="n">
+        <v>81</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.103316326530612</v>
+      </c>
+      <c r="H697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B698" t="s">
+        <v>15</v>
+      </c>
+      <c r="C698" t="n">
+        <v>2104</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.0660970092988188</v>
+      </c>
+      <c r="E698" t="n">
+        <v>63</v>
+      </c>
+      <c r="F698" t="n">
+        <v>82</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.104591836734694</v>
+      </c>
+      <c r="H698" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B699" t="s">
+        <v>16</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.0475622015581804</v>
+      </c>
+      <c r="E699" t="n">
+        <v>37</v>
+      </c>
+      <c r="F699" t="n">
+        <v>88</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.112244897959184</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B700" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700" t="n">
+        <v>943</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.0296242774566474</v>
+      </c>
+      <c r="E700" t="n">
+        <v>12</v>
+      </c>
+      <c r="F700" t="n">
+        <v>86</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.10969387755102</v>
+      </c>
+      <c r="H700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B701" t="s">
+        <v>18</v>
+      </c>
+      <c r="C701" t="n">
+        <v>665</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.0208909273686856</v>
+      </c>
+      <c r="E701" t="n">
+        <v>4</v>
+      </c>
+      <c r="F701" t="n">
+        <v>90</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.114795918367347</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B702" t="s">
+        <v>19</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.037697914048756</v>
+      </c>
+      <c r="E702" t="n">
+        <v>6</v>
+      </c>
+      <c r="F702" t="n">
+        <v>302</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.385204081632653</v>
+      </c>
+      <c r="H702" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B703" t="s">
+        <v>20</v>
+      </c>
+      <c r="C703" t="n">
+        <v>21</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.000659713495853229</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22549,6 +22887,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>13904</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.436793164111586</v>
+      </c>
+      <c r="E161" t="n">
+        <v>118</v>
+      </c>
+      <c r="F161" t="n">
+        <v>321</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.409438775510204</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17338</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.544672028147776</v>
+      </c>
+      <c r="E162" t="n">
+        <v>599</v>
+      </c>
+      <c r="F162" t="n">
+        <v>462</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.589285714285714</v>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="n">
+        <v>590</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0185348077406383</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.00127551020408163</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -30701,6 +31117,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B314" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" t="n">
+        <v>678</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.0212993214375471</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>16</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0204081632653061</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B315" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3985</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.125188489570244</v>
+      </c>
+      <c r="E315" t="n">
+        <v>163</v>
+      </c>
+      <c r="F315" t="n">
+        <v>98</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12817</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.402645136969088</v>
+      </c>
+      <c r="E316" t="n">
+        <v>306</v>
+      </c>
+      <c r="F316" t="n">
+        <v>236</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.301020408163265</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" t="n">
+        <v>152</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.00477506911284242</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.00255102040816327</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B318" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5984</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.187986931389796</v>
+      </c>
+      <c r="E318" t="n">
+        <v>34</v>
+      </c>
+      <c r="F318" t="n">
+        <v>97</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.123724489795918</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B319" t="s">
+        <v>27</v>
+      </c>
+      <c r="C319" t="n">
+        <v>8216</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.258105051520483</v>
+      </c>
+      <c r="E319" t="n">
+        <v>279</v>
+      </c>
+      <c r="F319" t="n">
+        <v>335</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.427295918367347</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -18713,6 +18713,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B704" t="s">
+        <v>8</v>
+      </c>
+      <c r="C704" t="n">
+        <v>134</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.4161232222</v>
+      </c>
+      <c r="E704" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B705" t="s">
+        <v>9</v>
+      </c>
+      <c r="C705" t="n">
+        <v>586</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1.8197627477</v>
+      </c>
+      <c r="E705" t="n">
+        <v>4</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B706" t="s">
+        <v>10</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D706" t="n">
+        <v>4.7108875225</v>
+      </c>
+      <c r="E706" t="n">
+        <v>8</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B707" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" t="n">
+        <v>6097</v>
+      </c>
+      <c r="D707" t="n">
+        <v>18.933606608</v>
+      </c>
+      <c r="E707" t="n">
+        <v>80</v>
+      </c>
+      <c r="F707" t="n">
+        <v>8</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1.0165184244</v>
+      </c>
+      <c r="H707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B708" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" t="n">
+        <v>6154</v>
+      </c>
+      <c r="D708" t="n">
+        <v>19.110614248</v>
+      </c>
+      <c r="E708" t="n">
+        <v>77</v>
+      </c>
+      <c r="F708" t="n">
+        <v>12</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.5247776366</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B709" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>5808</v>
+      </c>
+      <c r="D709" t="n">
+        <v>18.036146823</v>
+      </c>
+      <c r="E709" t="n">
+        <v>62</v>
+      </c>
+      <c r="F709" t="n">
+        <v>36</v>
+      </c>
+      <c r="G709" t="n">
+        <v>4.5743329098</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B710" t="s">
+        <v>14</v>
+      </c>
+      <c r="C710" t="n">
+        <v>5405</v>
+      </c>
+      <c r="D710" t="n">
+        <v>16.78467176</v>
+      </c>
+      <c r="E710" t="n">
+        <v>86</v>
+      </c>
+      <c r="F710" t="n">
+        <v>81</v>
+      </c>
+      <c r="G710" t="n">
+        <v>10.292249047</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B711" t="s">
+        <v>15</v>
+      </c>
+      <c r="C711" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D711" t="n">
+        <v>6.6176013912</v>
+      </c>
+      <c r="E711" t="n">
+        <v>27</v>
+      </c>
+      <c r="F711" t="n">
+        <v>83</v>
+      </c>
+      <c r="G711" t="n">
+        <v>10.546378653</v>
+      </c>
+      <c r="H711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B712" t="s">
+        <v>16</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4.7512576859</v>
+      </c>
+      <c r="E712" t="n">
+        <v>16</v>
+      </c>
+      <c r="F712" t="n">
+        <v>88</v>
+      </c>
+      <c r="G712" t="n">
+        <v>11.181702668</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B713" t="s">
+        <v>17</v>
+      </c>
+      <c r="C713" t="n">
+        <v>949</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.9470219241</v>
+      </c>
+      <c r="E713" t="n">
+        <v>6</v>
+      </c>
+      <c r="F713" t="n">
+        <v>86</v>
+      </c>
+      <c r="G713" t="n">
+        <v>10.927573062</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B714" t="s">
+        <v>18</v>
+      </c>
+      <c r="C714" t="n">
+        <v>668</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.0744053164</v>
+      </c>
+      <c r="E714" t="n">
+        <v>3</v>
+      </c>
+      <c r="F714" t="n">
+        <v>90</v>
+      </c>
+      <c r="G714" t="n">
+        <v>11.435832274</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B715" t="s">
+        <v>19</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D715" t="n">
+        <v>3.7326874107</v>
+      </c>
+      <c r="E715" t="n">
+        <v>2</v>
+      </c>
+      <c r="F715" t="n">
+        <v>303</v>
+      </c>
+      <c r="G715" t="n">
+        <v>38.500635324</v>
+      </c>
+      <c r="H715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B716" t="s">
+        <v>20</v>
+      </c>
+      <c r="C716" t="n">
+        <v>21</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.0652133408</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22965,6 +23303,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="n">
+        <v>13977</v>
+      </c>
+      <c r="D164" t="n">
+        <v>43.404136389</v>
+      </c>
+      <c r="E164" t="n">
+        <v>73</v>
+      </c>
+      <c r="F164" t="n">
+        <v>321</v>
+      </c>
+      <c r="G164" t="n">
+        <v>40.787801779</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="n">
+        <v>17623</v>
+      </c>
+      <c r="D165" t="n">
+        <v>54.726414508</v>
+      </c>
+      <c r="E165" t="n">
+        <v>285</v>
+      </c>
+      <c r="F165" t="n">
+        <v>465</v>
+      </c>
+      <c r="G165" t="n">
+        <v>59.085133418</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="n">
+        <v>602</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.8694491025</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1270648031</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -31273,6 +31689,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" t="n">
+        <v>683</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2.1209862741</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5</v>
+      </c>
+      <c r="F320" t="n">
+        <v>16</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2.0330368488</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12.604807155</v>
+      </c>
+      <c r="E321" t="n">
+        <v>74</v>
+      </c>
+      <c r="F321" t="n">
+        <v>99</v>
+      </c>
+      <c r="G321" t="n">
+        <v>12.579415502</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B322" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322" t="n">
+        <v>12980</v>
+      </c>
+      <c r="D322" t="n">
+        <v>40.3080554</v>
+      </c>
+      <c r="E322" t="n">
+        <v>163</v>
+      </c>
+      <c r="F322" t="n">
+        <v>237</v>
+      </c>
+      <c r="G322" t="n">
+        <v>30.114358323</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B323" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323" t="n">
+        <v>153</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4751257686</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.2541296061</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B324" t="s">
+        <v>20</v>
+      </c>
+      <c r="C324" t="n">
+        <v>5986</v>
+      </c>
+      <c r="D324" t="n">
+        <v>18.588907521</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2</v>
+      </c>
+      <c r="F324" t="n">
+        <v>97</v>
+      </c>
+      <c r="G324" t="n">
+        <v>12.325285896</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B325" t="s">
+        <v>27</v>
+      </c>
+      <c r="C325" t="n">
+        <v>8341</v>
+      </c>
+      <c r="D325" t="n">
+        <v>25.902117881</v>
+      </c>
+      <c r="E325" t="n">
+        <v>125</v>
+      </c>
+      <c r="F325" t="n">
+        <v>336</v>
+      </c>
+      <c r="G325" t="n">
+        <v>42.693773825</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -19051,6 +19051,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B717" t="s">
+        <v>8</v>
+      </c>
+      <c r="C717" t="n">
+        <v>134</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.4154008308</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0</v>
+      </c>
+      <c r="F717" t="n">
+        <v>2</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.0350078768</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B718" t="s">
+        <v>9</v>
+      </c>
+      <c r="C718" t="n">
+        <v>587</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1.8197036394</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.0175039384</v>
+      </c>
+      <c r="H718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B719" t="s">
+        <v>10</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D719" t="n">
+        <v>4.7027094054</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0</v>
+      </c>
+      <c r="F719" t="n">
+        <v>8</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.1400315071</v>
+      </c>
+      <c r="H719" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B720" t="s">
+        <v>11</v>
+      </c>
+      <c r="C720" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D720" t="n">
+        <v>18.925537851</v>
+      </c>
+      <c r="E720" t="n">
+        <v>8</v>
+      </c>
+      <c r="F720" t="n">
+        <v>47</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.8226851041</v>
+      </c>
+      <c r="H720" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B721" t="s">
+        <v>12</v>
+      </c>
+      <c r="C721" t="n">
+        <v>6172</v>
+      </c>
+      <c r="D721" t="n">
+        <v>19.133238266</v>
+      </c>
+      <c r="E721" t="n">
+        <v>18</v>
+      </c>
+      <c r="F721" t="n">
+        <v>121</v>
+      </c>
+      <c r="G721" t="n">
+        <v>2.1179765447</v>
+      </c>
+      <c r="H721" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>5822</v>
+      </c>
+      <c r="D722" t="n">
+        <v>18.048236096</v>
+      </c>
+      <c r="E722" t="n">
+        <v>14</v>
+      </c>
+      <c r="F722" t="n">
+        <v>315</v>
+      </c>
+      <c r="G722" t="n">
+        <v>5.5137405916</v>
+      </c>
+      <c r="H722" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B723" t="s">
+        <v>14</v>
+      </c>
+      <c r="C723" t="n">
+        <v>5414</v>
+      </c>
+      <c r="D723" t="n">
+        <v>16.783433567</v>
+      </c>
+      <c r="E723" t="n">
+        <v>9</v>
+      </c>
+      <c r="F723" t="n">
+        <v>634</v>
+      </c>
+      <c r="G723" t="n">
+        <v>11.097496937</v>
+      </c>
+      <c r="H723" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B724" t="s">
+        <v>15</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D724" t="n">
+        <v>6.618513237</v>
+      </c>
+      <c r="E724" t="n">
+        <v>4</v>
+      </c>
+      <c r="F724" t="n">
+        <v>533</v>
+      </c>
+      <c r="G724" t="n">
+        <v>9.3295991598</v>
+      </c>
+      <c r="H724" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B725" t="s">
+        <v>16</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1532</v>
+      </c>
+      <c r="D725" t="n">
+        <v>4.7492094984</v>
+      </c>
+      <c r="E725" t="n">
+        <v>2</v>
+      </c>
+      <c r="F725" t="n">
+        <v>660</v>
+      </c>
+      <c r="G725" t="n">
+        <v>11.552599335</v>
+      </c>
+      <c r="H725" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B726" t="s">
+        <v>17</v>
+      </c>
+      <c r="C726" t="n">
+        <v>949</v>
+      </c>
+      <c r="D726" t="n">
+        <v>2.9419058838</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0</v>
+      </c>
+      <c r="F726" t="n">
+        <v>717</v>
+      </c>
+      <c r="G726" t="n">
+        <v>12.550323823</v>
+      </c>
+      <c r="H726" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B727" t="s">
+        <v>18</v>
+      </c>
+      <c r="C727" t="n">
+        <v>668</v>
+      </c>
+      <c r="D727" t="n">
+        <v>2.0708041416</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0</v>
+      </c>
+      <c r="F727" t="n">
+        <v>702</v>
+      </c>
+      <c r="G727" t="n">
+        <v>12.287764747</v>
+      </c>
+      <c r="H727" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B728" t="s">
+        <v>19</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.7262074524</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1973</v>
+      </c>
+      <c r="G728" t="n">
+        <v>34.535270436</v>
+      </c>
+      <c r="H728" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B729" t="s">
+        <v>20</v>
+      </c>
+      <c r="C729" t="n">
+        <v>21</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0.0651001302</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23381,6 +23719,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13981</v>
+      </c>
+      <c r="D167" t="n">
+        <v>43.341186682</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2302</v>
+      </c>
+      <c r="G167" t="n">
+        <v>40.294066165</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="n">
+        <v>17675</v>
+      </c>
+      <c r="D168" t="n">
+        <v>54.792609585</v>
+      </c>
+      <c r="E168" t="n">
+        <v>52</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3411</v>
+      </c>
+      <c r="G168" t="n">
+        <v>59.705933835</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="n">
+        <v>602</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.8662037324</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -31845,6 +32261,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" t="n">
+        <v>684</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.1204042408</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>147</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2.5730789428</v>
+      </c>
+      <c r="H326" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B327" t="s">
+        <v>24</v>
+      </c>
+      <c r="C327" t="n">
+        <v>4076</v>
+      </c>
+      <c r="D327" t="n">
+        <v>12.635625271</v>
+      </c>
+      <c r="E327" t="n">
+        <v>17</v>
+      </c>
+      <c r="F327" t="n">
+        <v>806</v>
+      </c>
+      <c r="G327" t="n">
+        <v>14.108174339</v>
+      </c>
+      <c r="H327" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="n">
+        <v>13003</v>
+      </c>
+      <c r="D328" t="n">
+        <v>40.309380619</v>
+      </c>
+      <c r="E328" t="n">
+        <v>23</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2705</v>
+      </c>
+      <c r="G328" t="n">
+        <v>47.348153335</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B329" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329" t="n">
+        <v>152</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.4712009424</v>
+      </c>
+      <c r="E329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>46</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.8051811658</v>
+      </c>
+      <c r="H329" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B330" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" t="n">
+        <v>5983</v>
+      </c>
+      <c r="D330" t="n">
+        <v>18.547337095</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0525118152</v>
+      </c>
+      <c r="H330" t="n">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B331" t="s">
+        <v>27</v>
+      </c>
+      <c r="C331" t="n">
+        <v>8360</v>
+      </c>
+      <c r="D331" t="n">
+        <v>25.916051832</v>
+      </c>
+      <c r="E331" t="n">
+        <v>19</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G331" t="n">
+        <v>35.112900403</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -19389,6 +19389,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B730" t="s">
+        <v>8</v>
+      </c>
+      <c r="C730" t="n">
+        <v>135</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0.4081262471</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.0340309682</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B731" t="s">
+        <v>9</v>
+      </c>
+      <c r="C731" t="n">
+        <v>595</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.7987786444</v>
+      </c>
+      <c r="E731" t="n">
+        <v>8</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.0170154841</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B732" t="s">
+        <v>10</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D732" t="n">
+        <v>4.6435697442</v>
+      </c>
+      <c r="E732" t="n">
+        <v>19</v>
+      </c>
+      <c r="F732" t="n">
+        <v>8</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.1361238727</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B733" t="s">
+        <v>11</v>
+      </c>
+      <c r="C733" t="n">
+        <v>6229</v>
+      </c>
+      <c r="D733" t="n">
+        <v>18.831247355</v>
+      </c>
+      <c r="E733" t="n">
+        <v>124</v>
+      </c>
+      <c r="F733" t="n">
+        <v>48</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.8167432363</v>
+      </c>
+      <c r="H733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B734" t="s">
+        <v>12</v>
+      </c>
+      <c r="C734" t="n">
+        <v>6362</v>
+      </c>
+      <c r="D734" t="n">
+        <v>19.233327287</v>
+      </c>
+      <c r="E734" t="n">
+        <v>190</v>
+      </c>
+      <c r="F734" t="n">
+        <v>124</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2.1099200272</v>
+      </c>
+      <c r="H734" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B735" t="s">
+        <v>13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>6003</v>
+      </c>
+      <c r="D735" t="n">
+        <v>18.148013786</v>
+      </c>
+      <c r="E735" t="n">
+        <v>181</v>
+      </c>
+      <c r="F735" t="n">
+        <v>323</v>
+      </c>
+      <c r="G735" t="n">
+        <v>5.4960013612</v>
+      </c>
+      <c r="H735" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B736" t="s">
+        <v>14</v>
+      </c>
+      <c r="C736" t="n">
+        <v>5589</v>
+      </c>
+      <c r="D736" t="n">
+        <v>16.896426628</v>
+      </c>
+      <c r="E736" t="n">
+        <v>175</v>
+      </c>
+      <c r="F736" t="n">
+        <v>654</v>
+      </c>
+      <c r="G736" t="n">
+        <v>11.128126595</v>
+      </c>
+      <c r="H736" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B737" t="s">
+        <v>15</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2180</v>
+      </c>
+      <c r="D737" t="n">
+        <v>6.5904831006</v>
+      </c>
+      <c r="E737" t="n">
+        <v>45</v>
+      </c>
+      <c r="F737" t="n">
+        <v>542</v>
+      </c>
+      <c r="G737" t="n">
+        <v>9.2223923771</v>
+      </c>
+      <c r="H737" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B738" t="s">
+        <v>16</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1571</v>
+      </c>
+      <c r="D738" t="n">
+        <v>4.7493802527</v>
+      </c>
+      <c r="E738" t="n">
+        <v>39</v>
+      </c>
+      <c r="F738" t="n">
+        <v>682</v>
+      </c>
+      <c r="G738" t="n">
+        <v>11.60456015</v>
+      </c>
+      <c r="H738" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B739" t="s">
+        <v>17</v>
+      </c>
+      <c r="C739" t="n">
+        <v>967</v>
+      </c>
+      <c r="D739" t="n">
+        <v>2.9233931919</v>
+      </c>
+      <c r="E739" t="n">
+        <v>18</v>
+      </c>
+      <c r="F739" t="n">
+        <v>737</v>
+      </c>
+      <c r="G739" t="n">
+        <v>12.540411775</v>
+      </c>
+      <c r="H739" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B740" t="s">
+        <v>18</v>
+      </c>
+      <c r="C740" t="n">
+        <v>681</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2.0587701796</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="n">
+        <v>724</v>
+      </c>
+      <c r="G740" t="n">
+        <v>12.319210482</v>
+      </c>
+      <c r="H740" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B741" t="s">
+        <v>19</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D741" t="n">
+        <v>3.6519741218</v>
+      </c>
+      <c r="E741" t="n">
+        <v>6</v>
+      </c>
+      <c r="F741" t="n">
+        <v>2032</v>
+      </c>
+      <c r="G741" t="n">
+        <v>34.575463672</v>
+      </c>
+      <c r="H741" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B742" t="s">
+        <v>20</v>
+      </c>
+      <c r="C742" t="n">
+        <v>22</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0.0665094625</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23797,6 +24135,84 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="n">
+        <v>14095</v>
+      </c>
+      <c r="D170" t="n">
+        <v>42.61140335</v>
+      </c>
+      <c r="E170" t="n">
+        <v>114</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2379</v>
+      </c>
+      <c r="G170" t="n">
+        <v>40.479836651</v>
+      </c>
+      <c r="H170" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="n">
+        <v>18341</v>
+      </c>
+      <c r="D171" t="n">
+        <v>55.447729609</v>
+      </c>
+      <c r="E171" t="n">
+        <v>666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3498</v>
+      </c>
+      <c r="G171" t="n">
+        <v>59.520163349</v>
+      </c>
+      <c r="H171" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="n">
+        <v>642</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.9408670415</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -32417,6 +32833,162 @@
         <v>1670</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="n">
+        <v>690</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.085978596</v>
+      </c>
+      <c r="E332" t="n">
+        <v>6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>152</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2.5863535818</v>
+      </c>
+      <c r="H332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B333" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4264</v>
+      </c>
+      <c r="D333" t="n">
+        <v>12.890743092</v>
+      </c>
+      <c r="E333" t="n">
+        <v>188</v>
+      </c>
+      <c r="F333" t="n">
+        <v>829</v>
+      </c>
+      <c r="G333" t="n">
+        <v>14.105836311</v>
+      </c>
+      <c r="H333" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B334" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" t="n">
+        <v>13290</v>
+      </c>
+      <c r="D334" t="n">
+        <v>40.177761654</v>
+      </c>
+      <c r="E334" t="n">
+        <v>287</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2779</v>
+      </c>
+      <c r="G334" t="n">
+        <v>47.286030288</v>
+      </c>
+      <c r="H334" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" t="n">
+        <v>155</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.4685893948</v>
+      </c>
+      <c r="E335" t="n">
+        <v>3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>47</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.7997277523</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B336" t="s">
+        <v>20</v>
+      </c>
+      <c r="C336" t="n">
+        <v>6045</v>
+      </c>
+      <c r="D336" t="n">
+        <v>18.274986396</v>
+      </c>
+      <c r="E336" t="n">
+        <v>62</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0680619364</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B337" t="s">
+        <v>27</v>
+      </c>
+      <c r="C337" t="n">
+        <v>8634</v>
+      </c>
+      <c r="D337" t="n">
+        <v>26.101940867</v>
+      </c>
+      <c r="E337" t="n">
+        <v>274</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2066</v>
+      </c>
+      <c r="G337" t="n">
+        <v>35.153990131</v>
+      </c>
+      <c r="H337" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -19727,6 +19727,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B743" t="s">
+        <v>8</v>
+      </c>
+      <c r="C743" t="n">
+        <v>137</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0.4046430576</v>
+      </c>
+      <c r="E743" t="n">
+        <v>2</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.0323101777</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B744" t="s">
+        <v>9</v>
+      </c>
+      <c r="C744" t="n">
+        <v>609</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1.7987417668</v>
+      </c>
+      <c r="E744" t="n">
+        <v>14</v>
+      </c>
+      <c r="F744" t="n">
+        <v>2</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.0323101777</v>
+      </c>
+      <c r="H744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B745" t="s">
+        <v>10</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D745" t="n">
+        <v>4.5780783885</v>
+      </c>
+      <c r="E745" t="n">
+        <v>14</v>
+      </c>
+      <c r="F745" t="n">
+        <v>9</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.1453957997</v>
+      </c>
+      <c r="H745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B746" t="s">
+        <v>11</v>
+      </c>
+      <c r="C746" t="n">
+        <v>6363</v>
+      </c>
+      <c r="D746" t="n">
+        <v>18.793750185</v>
+      </c>
+      <c r="E746" t="n">
+        <v>134</v>
+      </c>
+      <c r="F746" t="n">
+        <v>52</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.8400646204</v>
+      </c>
+      <c r="H746" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B747" t="s">
+        <v>12</v>
+      </c>
+      <c r="C747" t="n">
+        <v>6550</v>
+      </c>
+      <c r="D747" t="n">
+        <v>19.34607319</v>
+      </c>
+      <c r="E747" t="n">
+        <v>188</v>
+      </c>
+      <c r="F747" t="n">
+        <v>131</v>
+      </c>
+      <c r="G747" t="n">
+        <v>2.1163166397</v>
+      </c>
+      <c r="H747" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B748" t="s">
+        <v>13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D748" t="n">
+        <v>18.164633606</v>
+      </c>
+      <c r="E748" t="n">
+        <v>147</v>
+      </c>
+      <c r="F748" t="n">
+        <v>341</v>
+      </c>
+      <c r="G748" t="n">
+        <v>5.5088852989</v>
+      </c>
+      <c r="H748" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B749" t="s">
+        <v>14</v>
+      </c>
+      <c r="C749" t="n">
+        <v>5751</v>
+      </c>
+      <c r="D749" t="n">
+        <v>16.986147621</v>
+      </c>
+      <c r="E749" t="n">
+        <v>162</v>
+      </c>
+      <c r="F749" t="n">
+        <v>689</v>
+      </c>
+      <c r="G749" t="n">
+        <v>11.13085622</v>
+      </c>
+      <c r="H749" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B750" t="s">
+        <v>15</v>
+      </c>
+      <c r="C750" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D750" t="n">
+        <v>6.5776648847</v>
+      </c>
+      <c r="E750" t="n">
+        <v>47</v>
+      </c>
+      <c r="F750" t="n">
+        <v>568</v>
+      </c>
+      <c r="G750" t="n">
+        <v>9.1760904685</v>
+      </c>
+      <c r="H750" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B751" t="s">
+        <v>16</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D751" t="n">
+        <v>4.7316655345</v>
+      </c>
+      <c r="E751" t="n">
+        <v>31</v>
+      </c>
+      <c r="F751" t="n">
+        <v>714</v>
+      </c>
+      <c r="G751" t="n">
+        <v>11.534733441</v>
+      </c>
+      <c r="H751" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B752" t="s">
+        <v>17</v>
+      </c>
+      <c r="C752" t="n">
+        <v>985</v>
+      </c>
+      <c r="D752" t="n">
+        <v>2.9092949759</v>
+      </c>
+      <c r="E752" t="n">
+        <v>18</v>
+      </c>
+      <c r="F752" t="n">
+        <v>782</v>
+      </c>
+      <c r="G752" t="n">
+        <v>12.633279483</v>
+      </c>
+      <c r="H752" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B753" t="s">
+        <v>18</v>
+      </c>
+      <c r="C753" t="n">
+        <v>688</v>
+      </c>
+      <c r="D753" t="n">
+        <v>2.0320760847</v>
+      </c>
+      <c r="E753" t="n">
+        <v>7</v>
+      </c>
+      <c r="F753" t="n">
+        <v>763</v>
+      </c>
+      <c r="G753" t="n">
+        <v>12.326332795</v>
+      </c>
+      <c r="H753" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B754" t="s">
+        <v>19</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D754" t="n">
+        <v>3.6122515285</v>
+      </c>
+      <c r="E754" t="n">
+        <v>15</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2137</v>
+      </c>
+      <c r="G754" t="n">
+        <v>34.523424879</v>
+      </c>
+      <c r="H754" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B755" t="s">
+        <v>20</v>
+      </c>
+      <c r="C755" t="n">
+        <v>22</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0.0649791771</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24213,6 +24551,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B173" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" t="n">
+        <v>14258</v>
+      </c>
+      <c r="D173" t="n">
+        <v>42.112413976</v>
+      </c>
+      <c r="E173" t="n">
+        <v>163</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2512</v>
+      </c>
+      <c r="G173" t="n">
+        <v>40.581583199</v>
+      </c>
+      <c r="H173" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="n">
+        <v>18935</v>
+      </c>
+      <c r="D174" t="n">
+        <v>55.926396314</v>
+      </c>
+      <c r="E174" t="n">
+        <v>594</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3678</v>
+      </c>
+      <c r="G174" t="n">
+        <v>59.418416801</v>
+      </c>
+      <c r="H174" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="n">
+        <v>664</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.9611897097</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -32989,6 +33405,162 @@
         <v>60</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="n">
+        <v>698</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.0616120743</v>
+      </c>
+      <c r="E338" t="n">
+        <v>8</v>
+      </c>
+      <c r="F338" t="n">
+        <v>158</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2.5525040388</v>
+      </c>
+      <c r="H338" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B339" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4442</v>
+      </c>
+      <c r="D339" t="n">
+        <v>13.119886582</v>
+      </c>
+      <c r="E339" t="n">
+        <v>178</v>
+      </c>
+      <c r="F339" t="n">
+        <v>866</v>
+      </c>
+      <c r="G339" t="n">
+        <v>13.990306947</v>
+      </c>
+      <c r="H339" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B340" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" t="n">
+        <v>13589</v>
+      </c>
+      <c r="D340" t="n">
+        <v>40.136456272</v>
+      </c>
+      <c r="E340" t="n">
+        <v>299</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2965</v>
+      </c>
+      <c r="G340" t="n">
+        <v>47.899838449</v>
+      </c>
+      <c r="H340" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B341" t="s">
+        <v>26</v>
+      </c>
+      <c r="C341" t="n">
+        <v>156</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.4607614378</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>50</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.8077544426</v>
+      </c>
+      <c r="H341" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B342" t="s">
+        <v>20</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6098</v>
+      </c>
+      <c r="D342" t="n">
+        <v>18.01104646</v>
+      </c>
+      <c r="E342" t="n">
+        <v>53</v>
+      </c>
+      <c r="F342" t="n">
+        <v>4</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0646203554</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B343" t="s">
+        <v>27</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8874</v>
+      </c>
+      <c r="D343" t="n">
+        <v>26.210237174</v>
+      </c>
+      <c r="E343" t="n">
+        <v>240</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G343" t="n">
+        <v>34.684975767</v>
+      </c>
+      <c r="H343" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -20065,6 +20065,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B756" t="s">
+        <v>8</v>
+      </c>
+      <c r="C756" t="n">
+        <v>138</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0.3978779841</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.0318775901</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B757" t="s">
+        <v>9</v>
+      </c>
+      <c r="C757" t="n">
+        <v>619</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.7846845808</v>
+      </c>
+      <c r="E757" t="n">
+        <v>10</v>
+      </c>
+      <c r="F757" t="n">
+        <v>2</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.0318775901</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B758" t="s">
+        <v>10</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1569</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4.5236996886</v>
+      </c>
+      <c r="E758" t="n">
+        <v>19</v>
+      </c>
+      <c r="F758" t="n">
+        <v>7</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.1115715652</v>
+      </c>
+      <c r="H758" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B759" t="s">
+        <v>11</v>
+      </c>
+      <c r="C759" t="n">
+        <v>6516</v>
+      </c>
+      <c r="D759" t="n">
+        <v>18.786760466</v>
+      </c>
+      <c r="E759" t="n">
+        <v>153</v>
+      </c>
+      <c r="F759" t="n">
+        <v>53</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.8447561364</v>
+      </c>
+      <c r="H759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B760" t="s">
+        <v>12</v>
+      </c>
+      <c r="C760" t="n">
+        <v>6749</v>
+      </c>
+      <c r="D760" t="n">
+        <v>19.458539961</v>
+      </c>
+      <c r="E760" t="n">
+        <v>199</v>
+      </c>
+      <c r="F760" t="n">
+        <v>131</v>
+      </c>
+      <c r="G760" t="n">
+        <v>2.0879821486</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B761" t="s">
+        <v>13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>6305</v>
+      </c>
+      <c r="D761" t="n">
+        <v>18.178410795</v>
+      </c>
+      <c r="E761" t="n">
+        <v>155</v>
+      </c>
+      <c r="F761" t="n">
+        <v>351</v>
+      </c>
+      <c r="G761" t="n">
+        <v>5.5945170545</v>
+      </c>
+      <c r="H761" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B762" t="s">
+        <v>14</v>
+      </c>
+      <c r="C762" t="n">
+        <v>5908</v>
+      </c>
+      <c r="D762" t="n">
+        <v>17.033790797</v>
+      </c>
+      <c r="E762" t="n">
+        <v>157</v>
+      </c>
+      <c r="F762" t="n">
+        <v>707</v>
+      </c>
+      <c r="G762" t="n">
+        <v>11.268728084</v>
+      </c>
+      <c r="H762" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B763" t="s">
+        <v>15</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2283</v>
+      </c>
+      <c r="D763" t="n">
+        <v>6.5822857802</v>
+      </c>
+      <c r="E763" t="n">
+        <v>56</v>
+      </c>
+      <c r="F763" t="n">
+        <v>573</v>
+      </c>
+      <c r="G763" t="n">
+        <v>9.1329295505</v>
+      </c>
+      <c r="H763" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B764" t="s">
+        <v>16</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1648</v>
+      </c>
+      <c r="D764" t="n">
+        <v>4.7514704186</v>
+      </c>
+      <c r="E764" t="n">
+        <v>46</v>
+      </c>
+      <c r="F764" t="n">
+        <v>716</v>
+      </c>
+      <c r="G764" t="n">
+        <v>11.412177239</v>
+      </c>
+      <c r="H764" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B765" t="s">
+        <v>17</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D765" t="n">
+        <v>2.8889401453</v>
+      </c>
+      <c r="E765" t="n">
+        <v>17</v>
+      </c>
+      <c r="F765" t="n">
+        <v>815</v>
+      </c>
+      <c r="G765" t="n">
+        <v>12.990117947</v>
+      </c>
+      <c r="H765" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B766" t="s">
+        <v>18</v>
+      </c>
+      <c r="C766" t="n">
+        <v>696</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2.0066889632</v>
+      </c>
+      <c r="E766" t="n">
+        <v>8</v>
+      </c>
+      <c r="F766" t="n">
+        <v>768</v>
+      </c>
+      <c r="G766" t="n">
+        <v>12.240994581</v>
+      </c>
+      <c r="H766" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B767" t="s">
+        <v>19</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.5434205974</v>
+      </c>
+      <c r="E767" t="n">
+        <v>6</v>
+      </c>
+      <c r="F767" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G767" t="n">
+        <v>34.252470513</v>
+      </c>
+      <c r="H767" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B768" t="s">
+        <v>20</v>
+      </c>
+      <c r="C768" t="n">
+        <v>22</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.0634298236</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24629,6 +24967,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="n">
+        <v>14359</v>
+      </c>
+      <c r="D176" t="n">
+        <v>41.399492561</v>
+      </c>
+      <c r="E176" t="n">
+        <v>101</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2543</v>
+      </c>
+      <c r="G176" t="n">
+        <v>40.532355754</v>
+      </c>
+      <c r="H176" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19607</v>
+      </c>
+      <c r="D177" t="n">
+        <v>56.530388652</v>
+      </c>
+      <c r="E177" t="n">
+        <v>672</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3731</v>
+      </c>
+      <c r="G177" t="n">
+        <v>59.467644246</v>
+      </c>
+      <c r="H177" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" t="n">
+        <v>718</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.0701187868</v>
+      </c>
+      <c r="E178" t="n">
+        <v>54</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -33561,6 +33977,162 @@
         <v>81</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" t="n">
+        <v>700</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.0182216584</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2</v>
+      </c>
+      <c r="F344" t="n">
+        <v>156</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1115715652</v>
+      </c>
+      <c r="H344" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="n">
+        <v>4631</v>
+      </c>
+      <c r="D345" t="n">
+        <v>13.351977857</v>
+      </c>
+      <c r="E345" t="n">
+        <v>189</v>
+      </c>
+      <c r="F345" t="n">
+        <v>866</v>
+      </c>
+      <c r="G345" t="n">
+        <v>13.898629264</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" t="n">
+        <v>13864</v>
+      </c>
+      <c r="D346" t="n">
+        <v>39.972321532</v>
+      </c>
+      <c r="E346" t="n">
+        <v>275</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3060</v>
+      </c>
+      <c r="G346" t="n">
+        <v>48.772712783</v>
+      </c>
+      <c r="H346" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B347" t="s">
+        <v>26</v>
+      </c>
+      <c r="C347" t="n">
+        <v>161</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.4641909814</v>
+      </c>
+      <c r="E347" t="n">
+        <v>5</v>
+      </c>
+      <c r="F347" t="n">
+        <v>53</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.1593879503</v>
+      </c>
+      <c r="H347" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" t="n">
+        <v>6164</v>
+      </c>
+      <c r="D348" t="n">
+        <v>17.771883289</v>
+      </c>
+      <c r="E348" t="n">
+        <v>66</v>
+      </c>
+      <c r="F348" t="n">
+        <v>4</v>
+      </c>
+      <c r="G348" t="n">
+        <v>2.9805546701</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B349" t="s">
+        <v>27</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9164</v>
+      </c>
+      <c r="D349" t="n">
+        <v>26.421404682</v>
+      </c>
+      <c r="E349" t="n">
+        <v>290</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2135</v>
+      </c>
+      <c r="G349" t="n">
+        <v>34.077143768</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -20403,6 +20403,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B769" t="s">
+        <v>8</v>
+      </c>
+      <c r="C769" t="n">
+        <v>138</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0.3881638164</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0</v>
+      </c>
+      <c r="F769" t="n">
+        <v>2</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.0304460344</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B770" t="s">
+        <v>9</v>
+      </c>
+      <c r="C770" t="n">
+        <v>622</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1.749549955</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3</v>
+      </c>
+      <c r="F770" t="n">
+        <v>2</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.0304460344</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B771" t="s">
+        <v>10</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D771" t="n">
+        <v>4.4526327633</v>
+      </c>
+      <c r="E771" t="n">
+        <v>14</v>
+      </c>
+      <c r="F771" t="n">
+        <v>7</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.1065611204</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B772" t="s">
+        <v>11</v>
+      </c>
+      <c r="C772" t="n">
+        <v>6649</v>
+      </c>
+      <c r="D772" t="n">
+        <v>18.702182718</v>
+      </c>
+      <c r="E772" t="n">
+        <v>133</v>
+      </c>
+      <c r="F772" t="n">
+        <v>54</v>
+      </c>
+      <c r="G772" t="n">
+        <v>0.8220429289</v>
+      </c>
+      <c r="H772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B773" t="s">
+        <v>12</v>
+      </c>
+      <c r="C773" t="n">
+        <v>6944</v>
+      </c>
+      <c r="D773" t="n">
+        <v>19.531953195</v>
+      </c>
+      <c r="E773" t="n">
+        <v>195</v>
+      </c>
+      <c r="F773" t="n">
+        <v>137</v>
+      </c>
+      <c r="G773" t="n">
+        <v>2.0855533567</v>
+      </c>
+      <c r="H773" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B774" t="s">
+        <v>13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>6489</v>
+      </c>
+      <c r="D774" t="n">
+        <v>18.252137714</v>
+      </c>
+      <c r="E774" t="n">
+        <v>184</v>
+      </c>
+      <c r="F774" t="n">
+        <v>362</v>
+      </c>
+      <c r="G774" t="n">
+        <v>5.5107322271</v>
+      </c>
+      <c r="H774" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B775" t="s">
+        <v>14</v>
+      </c>
+      <c r="C775" t="n">
+        <v>6053</v>
+      </c>
+      <c r="D775" t="n">
+        <v>17.025765077</v>
+      </c>
+      <c r="E775" t="n">
+        <v>145</v>
+      </c>
+      <c r="F775" t="n">
+        <v>735</v>
+      </c>
+      <c r="G775" t="n">
+        <v>11.188917643</v>
+      </c>
+      <c r="H775" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B776" t="s">
+        <v>15</v>
+      </c>
+      <c r="C776" t="n">
+        <v>2354</v>
+      </c>
+      <c r="D776" t="n">
+        <v>6.6212871287</v>
+      </c>
+      <c r="E776" t="n">
+        <v>71</v>
+      </c>
+      <c r="F776" t="n">
+        <v>605</v>
+      </c>
+      <c r="G776" t="n">
+        <v>9.2099254072</v>
+      </c>
+      <c r="H776" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B777" t="s">
+        <v>16</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D777" t="n">
+        <v>4.7986048605</v>
+      </c>
+      <c r="E777" t="n">
+        <v>58</v>
+      </c>
+      <c r="F777" t="n">
+        <v>747</v>
+      </c>
+      <c r="G777" t="n">
+        <v>11.37159385</v>
+      </c>
+      <c r="H777" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B778" t="s">
+        <v>17</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D778" t="n">
+        <v>2.9168541854</v>
+      </c>
+      <c r="E778" t="n">
+        <v>35</v>
+      </c>
+      <c r="F778" t="n">
+        <v>855</v>
+      </c>
+      <c r="G778" t="n">
+        <v>13.015679708</v>
+      </c>
+      <c r="H778" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B779" t="s">
+        <v>18</v>
+      </c>
+      <c r="C779" t="n">
+        <v>715</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2.0111386139</v>
+      </c>
+      <c r="E779" t="n">
+        <v>19</v>
+      </c>
+      <c r="F779" t="n">
+        <v>806</v>
+      </c>
+      <c r="G779" t="n">
+        <v>12.269751865</v>
+      </c>
+      <c r="H779" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B780" t="s">
+        <v>19</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D780" t="n">
+        <v>3.479410441</v>
+      </c>
+      <c r="E780" t="n">
+        <v>8</v>
+      </c>
+      <c r="F780" t="n">
+        <v>2257</v>
+      </c>
+      <c r="G780" t="n">
+        <v>34.358349825</v>
+      </c>
+      <c r="H780" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B781" t="s">
+        <v>20</v>
+      </c>
+      <c r="C781" t="n">
+        <v>25</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0.070319532</v>
+      </c>
+      <c r="E781" t="n">
+        <v>3</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -25045,6 +25383,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="n">
+        <v>14473</v>
+      </c>
+      <c r="D179" t="n">
+        <v>40.709383438</v>
+      </c>
+      <c r="E179" t="n">
+        <v>114</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2668</v>
+      </c>
+      <c r="G179" t="n">
+        <v>40.615009895</v>
+      </c>
+      <c r="H179" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20317</v>
+      </c>
+      <c r="D180" t="n">
+        <v>57.147277228</v>
+      </c>
+      <c r="E180" t="n">
+        <v>710</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3901</v>
+      </c>
+      <c r="G180" t="n">
+        <v>59.384990105</v>
+      </c>
+      <c r="H180" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" t="n">
+        <v>762</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.1433393339</v>
+      </c>
+      <c r="E181" t="n">
+        <v>44</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -34133,6 +34549,162 @@
         <v>-12</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" t="n">
+        <v>702</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.9745724572</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2</v>
+      </c>
+      <c r="F350" t="n">
+        <v>163</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2.4813518039</v>
+      </c>
+      <c r="H350" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B351" t="s">
+        <v>24</v>
+      </c>
+      <c r="C351" t="n">
+        <v>4793</v>
+      </c>
+      <c r="D351" t="n">
+        <v>13.481660666</v>
+      </c>
+      <c r="E351" t="n">
+        <v>162</v>
+      </c>
+      <c r="F351" t="n">
+        <v>889</v>
+      </c>
+      <c r="G351" t="n">
+        <v>13.533262293</v>
+      </c>
+      <c r="H351" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="n">
+        <v>14177</v>
+      </c>
+      <c r="D352" t="n">
+        <v>39.87680018</v>
+      </c>
+      <c r="E352" t="n">
+        <v>313</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G352" t="n">
+        <v>49.474805907</v>
+      </c>
+      <c r="H352" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" t="n">
+        <v>164</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.4612961296</v>
+      </c>
+      <c r="E353" t="n">
+        <v>3</v>
+      </c>
+      <c r="F353" t="n">
+        <v>53</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.8068199117</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B354" t="s">
+        <v>20</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6246</v>
+      </c>
+      <c r="D354" t="n">
+        <v>17.568631863</v>
+      </c>
+      <c r="E354" t="n">
+        <v>82</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0608920688</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D355" t="n">
+        <v>26.637038704</v>
+      </c>
+      <c r="E355" t="n">
+        <v>306</v>
+      </c>
+      <c r="F355" t="n">
+        <v>2210</v>
+      </c>
+      <c r="G355" t="n">
+        <v>33.642868016</v>
+      </c>
+      <c r="H355" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -20741,6 +20741,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B782" t="s">
+        <v>8</v>
+      </c>
+      <c r="C782" t="n">
+        <v>139</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0.00381386160346814</v>
+      </c>
+      <c r="E782" t="n">
+        <v>1</v>
+      </c>
+      <c r="F782" t="n">
+        <v>2</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.000292525961679099</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B783" t="s">
+        <v>9</v>
+      </c>
+      <c r="C783" t="n">
+        <v>629</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0.0172584097020249</v>
+      </c>
+      <c r="E783" t="n">
+        <v>7</v>
+      </c>
+      <c r="F783" t="n">
+        <v>2</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.000292525961679099</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B784" t="s">
+        <v>10</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0.0437633759534654</v>
+      </c>
+      <c r="E784" t="n">
+        <v>12</v>
+      </c>
+      <c r="F784" t="n">
+        <v>7</v>
+      </c>
+      <c r="G784" t="n">
+        <v>0.00102384086587685</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C785" t="n">
+        <v>6816</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0.187016407836251</v>
+      </c>
+      <c r="E785" t="n">
+        <v>167</v>
+      </c>
+      <c r="F785" t="n">
+        <v>56</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.00819072692701477</v>
+      </c>
+      <c r="H785" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B786" t="s">
+        <v>12</v>
+      </c>
+      <c r="C786" t="n">
+        <v>7152</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0.196235526532404</v>
+      </c>
+      <c r="E786" t="n">
+        <v>208</v>
+      </c>
+      <c r="F786" t="n">
+        <v>143</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.0209156062600556</v>
+      </c>
+      <c r="H786" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B787" t="s">
+        <v>13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>6652</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0.182516599901224</v>
+      </c>
+      <c r="E787" t="n">
+        <v>163</v>
+      </c>
+      <c r="F787" t="n">
+        <v>375</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.0548486178148311</v>
+      </c>
+      <c r="H787" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B788" t="s">
+        <v>14</v>
+      </c>
+      <c r="C788" t="n">
+        <v>6193</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0.1699226252538</v>
+      </c>
+      <c r="E788" t="n">
+        <v>140</v>
+      </c>
+      <c r="F788" t="n">
+        <v>769</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.112476232265614</v>
+      </c>
+      <c r="H788" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B789" t="s">
+        <v>15</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2426</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0.0665642320144872</v>
+      </c>
+      <c r="E789" t="n">
+        <v>72</v>
+      </c>
+      <c r="F789" t="n">
+        <v>629</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.0919994149480766</v>
+      </c>
+      <c r="H789" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B790" t="s">
+        <v>16</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0.0485650002743785</v>
+      </c>
+      <c r="E790" t="n">
+        <v>64</v>
+      </c>
+      <c r="F790" t="n">
+        <v>771</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.112768758227293</v>
+      </c>
+      <c r="H790" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B791" t="s">
+        <v>17</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0.0294956922570378</v>
+      </c>
+      <c r="E791" t="n">
+        <v>38</v>
+      </c>
+      <c r="F791" t="n">
+        <v>895</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.130905367851397</v>
+      </c>
+      <c r="H791" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B792" t="s">
+        <v>18</v>
+      </c>
+      <c r="C792" t="n">
+        <v>724</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0.0198650057619492</v>
+      </c>
+      <c r="E792" t="n">
+        <v>9</v>
+      </c>
+      <c r="F792" t="n">
+        <v>846</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.123738481790259</v>
+      </c>
+      <c r="H792" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B793" t="s">
+        <v>19</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0.0342150030181639</v>
+      </c>
+      <c r="E793" t="n">
+        <v>10</v>
+      </c>
+      <c r="F793" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.342547901126225</v>
+      </c>
+      <c r="H793" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B794" t="s">
+        <v>20</v>
+      </c>
+      <c r="C794" t="n">
+        <v>28</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0.000768259891346101</v>
+      </c>
+      <c r="E794" t="n">
+        <v>3</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -25461,6 +25799,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="n">
+        <v>14601</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.400620095483729</v>
+      </c>
+      <c r="E182" t="n">
+        <v>128</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2758</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.403393301155478</v>
+      </c>
+      <c r="H182" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>21049</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.577539373319432</v>
+      </c>
+      <c r="E183" t="n">
+        <v>732</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4079</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.596606698844522</v>
+      </c>
+      <c r="H183" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" t="n">
+        <v>796</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0218405311968392</v>
+      </c>
+      <c r="E184" t="n">
+        <v>34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -34705,6 +35121,162 @@
         <v>75</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B356" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" t="n">
+        <v>703</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.0192888108434396</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>167</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0244259178002048</v>
+      </c>
+      <c r="H356" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B357" t="s">
+        <v>24</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4997</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.137106952752017</v>
+      </c>
+      <c r="E357" t="n">
+        <v>204</v>
+      </c>
+      <c r="F357" t="n">
+        <v>910</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.13309931256399</v>
+      </c>
+      <c r="H357" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="n">
+        <v>14534</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.398781759315151</v>
+      </c>
+      <c r="E358" t="n">
+        <v>357</v>
+      </c>
+      <c r="F358" t="n">
+        <v>3423</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.500658183413778</v>
+      </c>
+      <c r="H358" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="n">
+        <v>166</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.00455468364155188</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2</v>
+      </c>
+      <c r="F359" t="n">
+        <v>53</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.00775193798449612</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B360" t="s">
+        <v>20</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.173105416232234</v>
+      </c>
+      <c r="E360" t="n">
+        <v>63</v>
+      </c>
+      <c r="F360" t="n">
+        <v>4</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.000585051923358198</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B361" t="s">
+        <v>27</v>
+      </c>
+      <c r="C361" t="n">
+        <v>9737</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.267162377215607</v>
+      </c>
+      <c r="E361" t="n">
+        <v>267</v>
+      </c>
+      <c r="F361" t="n">
+        <v>2280</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.333479596314173</v>
+      </c>
+      <c r="H361" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tableau/demographics.xlsx
+++ b/tableau/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H794"/>
+  <dimension ref="A1:H807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22612,6 +22612,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C795">
+        <v>139</v>
+      </c>
+      <c r="D795">
+        <v>0.003800514026357522</v>
+      </c>
+      <c r="E795">
+        <v>0</v>
+      </c>
+      <c r="F795">
+        <v>2</v>
+      </c>
+      <c r="G795">
+        <v>0.0002850627137970354</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C796">
+        <v>629</v>
+      </c>
+      <c r="D796">
+        <v>0.01719800951495598</v>
+      </c>
+      <c r="E796">
+        <v>0</v>
+      </c>
+      <c r="F796">
+        <v>2</v>
+      </c>
+      <c r="G796">
+        <v>0.0002850627137970354</v>
+      </c>
+      <c r="H796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C797">
+        <v>1597</v>
+      </c>
+      <c r="D797">
+        <v>0.04366489856181987</v>
+      </c>
+      <c r="E797">
+        <v>2</v>
+      </c>
+      <c r="F797">
+        <v>7</v>
+      </c>
+      <c r="G797">
+        <v>0.0009977194982896238</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C798">
+        <v>6832</v>
+      </c>
+      <c r="D798">
+        <v>0.1867993656696014</v>
+      </c>
+      <c r="E798">
+        <v>16</v>
+      </c>
+      <c r="F798">
+        <v>58</v>
+      </c>
+      <c r="G798">
+        <v>0.008266818700114025</v>
+      </c>
+      <c r="H798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C799">
+        <v>7184</v>
+      </c>
+      <c r="D799">
+        <v>0.19642368895937</v>
+      </c>
+      <c r="E799">
+        <v>32</v>
+      </c>
+      <c r="F799">
+        <v>146</v>
+      </c>
+      <c r="G799">
+        <v>0.02080957810718358</v>
+      </c>
+      <c r="H799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C800">
+        <v>6695</v>
+      </c>
+      <c r="D800">
+        <v>0.1830535352982994</v>
+      </c>
+      <c r="E800">
+        <v>43</v>
+      </c>
+      <c r="F800">
+        <v>381</v>
+      </c>
+      <c r="G800">
+        <v>0.05430444697833523</v>
+      </c>
+      <c r="H800">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C801">
+        <v>6212</v>
+      </c>
+      <c r="D801">
+        <v>0.1698474326023952</v>
+      </c>
+      <c r="E801">
+        <v>19</v>
+      </c>
+      <c r="F801">
+        <v>790</v>
+      </c>
+      <c r="G801">
+        <v>0.112599771949829</v>
+      </c>
+      <c r="H801">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C802">
+        <v>2433</v>
+      </c>
+      <c r="D802">
+        <v>0.06652266637502051</v>
+      </c>
+      <c r="E802">
+        <v>7</v>
+      </c>
+      <c r="F802">
+        <v>650</v>
+      </c>
+      <c r="G802">
+        <v>0.09264538198403649</v>
+      </c>
+      <c r="H802">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C803">
+        <v>1771</v>
+      </c>
+      <c r="D803">
+        <v>0.04842237655164871</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+      <c r="F803">
+        <v>797</v>
+      </c>
+      <c r="G803">
+        <v>0.1135974914481186</v>
+      </c>
+      <c r="H803">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C804">
+        <v>1074</v>
+      </c>
+      <c r="D804">
+        <v>0.0293651227648056</v>
+      </c>
+      <c r="E804">
+        <v>-1</v>
+      </c>
+      <c r="F804">
+        <v>918</v>
+      </c>
+      <c r="G804">
+        <v>0.1308437856328392</v>
+      </c>
+      <c r="H804">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C805">
+        <v>728</v>
+      </c>
+      <c r="D805">
+        <v>0.01990485044020342</v>
+      </c>
+      <c r="E805">
+        <v>4</v>
+      </c>
+      <c r="F805">
+        <v>862</v>
+      </c>
+      <c r="G805">
+        <v>0.1228620296465222</v>
+      </c>
+      <c r="H805">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C806">
+        <v>1249</v>
+      </c>
+      <c r="D806">
+        <v>0.03414994258216219</v>
+      </c>
+      <c r="E806">
+        <v>2</v>
+      </c>
+      <c r="F806">
+        <v>2403</v>
+      </c>
+      <c r="G806">
+        <v>0.342502850627138</v>
+      </c>
+      <c r="H806">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C807">
+        <v>31</v>
+      </c>
+      <c r="D807">
+        <v>0.0008475966533603106</v>
+      </c>
+      <c r="E807">
+        <v>3</v>
+      </c>
+      <c r="F807">
+        <v>0</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+      <c r="H807">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22619,7 +22983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27794,6 +28158,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>14632</v>
+      </c>
+      <c r="D185">
+        <v>0.4000656203860666</v>
+      </c>
+      <c r="E185">
+        <v>31</v>
+      </c>
+      <c r="F185">
+        <v>2833</v>
+      </c>
+      <c r="G185">
+        <v>0.4037913340935005</v>
+      </c>
+      <c r="H185">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>21146</v>
+      </c>
+      <c r="D186">
+        <v>0.5781702849018429</v>
+      </c>
+      <c r="E186">
+        <v>97</v>
+      </c>
+      <c r="F186">
+        <v>4183</v>
+      </c>
+      <c r="G186">
+        <v>0.5962086659064995</v>
+      </c>
+      <c r="H186">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>796</v>
+      </c>
+      <c r="D187">
+        <v>0.02176409471209056</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27801,7 +28249,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H361"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37932,6 +38380,174 @@
         <v>70</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C362">
+        <v>704</v>
+      </c>
+      <c r="D362">
+        <v>0.01924864657953738</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>172</v>
+      </c>
+      <c r="G362">
+        <v>0.02451539338654504</v>
+      </c>
+      <c r="H362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C363">
+        <v>5028</v>
+      </c>
+      <c r="D363">
+        <v>0.1374747088095368</v>
+      </c>
+      <c r="E363">
+        <v>31</v>
+      </c>
+      <c r="F363">
+        <v>930</v>
+      </c>
+      <c r="G363">
+        <v>0.1325541619156214</v>
+      </c>
+      <c r="H363">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C364">
+        <v>14583</v>
+      </c>
+      <c r="D364">
+        <v>0.3987258708372068</v>
+      </c>
+      <c r="E364">
+        <v>49</v>
+      </c>
+      <c r="F364">
+        <v>3537</v>
+      </c>
+      <c r="G364">
+        <v>0.504133409350057</v>
+      </c>
+      <c r="H364">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C365">
+        <v>168</v>
+      </c>
+      <c r="D365">
+        <v>0.004593427024662328</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>53</v>
+      </c>
+      <c r="G365">
+        <v>0.007554161915621437</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C366">
+        <v>6334</v>
+      </c>
+      <c r="D366">
+        <v>0.1731831355607809</v>
+      </c>
+      <c r="E366">
+        <v>25</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+      <c r="G366">
+        <v>0.0005701254275940707</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C367">
+        <v>9757</v>
+      </c>
+      <c r="D367">
+        <v>0.2667742111882758</v>
+      </c>
+      <c r="E367">
+        <v>20</v>
+      </c>
+      <c r="F367">
+        <v>2320</v>
+      </c>
+      <c r="G367">
+        <v>0.330672748004561</v>
+      </c>
+      <c r="H367">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
